--- a/resultados_completos.xlsx
+++ b/resultados_completos.xlsx
@@ -494,22 +494,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>378.6079967426709</v>
+        <v>-213.0254</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>155.8705048859934</v>
+        <v>525.7489999999999</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-291.165, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -243.67, -241.605, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -183.785, -181.72, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225]</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 303.55499999999984, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 295.29499999999985, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.03499999999985, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.77499999999986, 276.71000000000004, 274.645, 272.5799999999999, 270.5149999999999, 268.4499999999998, 266.385, 264.31999999999994, 262.2549999999999, 260.1899999999998, 258.125, 256.05999999999995, 253.9949999999999, 251.92999999999984, 249.865, 247.79999999999995, 245.7349999999999, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82499999999982, 214.76, 212.69499999999994, 208.56499999999983, 204.43499999999995, 202.3699999999999, 200.30499999999984, 196.17499999999995, 192.04499999999985, 187.91499999999996, 185.8499999999999, 183.78499999999985, 179.65499999999997, 175.52499999999986, 171.39499999999998, 167.26499999999987, 163.135, 159.00499999999988, 154.875, 150.7449999999999, 146.615, 142.4849999999999, 138.35500000000002, 134.2249999999999, 132.15999999999985, 130.09500000000003, 125.96499999999992, 121.83500000000004, 117.70499999999993, 115.63999999999987, 113.57500000000005, 109.44499999999994, 105.31499999999983, 103.25, 101.18499999999995, 97.05499999999984, 94.99000000000001, 92.92499999999995, 88.79499999999985, 86.73000000000002, 84.66499999999996, 80.53499999999985, 78.47000000000003, 76.40499999999997, 72.27499999999986, 70.21000000000004, 68.14499999999998, 66.07999999999993, 64.01499999999987, 61.950000000000045, 59.88499999999999, 55.75499999999988, 53.68999999999983, 51.625, 49.559999999999945, 47.49499999999989, 45.429999999999836, 45.429999999999836, 43.36500000000001, 41.299999999999955, 39.2349999999999, 37.169999999999845, 35.10500000000002, 33.039999999999964, 30.97499999999991, 28.909999999999854, 28.909999999999854, 26.845000000000027, 24.779999999999973, 22.714999999999918, 20.649999999999864, 20.649999999999864, 18.585000000000036, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999873, 12.389999999999873, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 2.064999999999827, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999827, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999873, 12.389999999999873, 12.389999999999873, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999864, 20.649999999999864, 22.714999999999918, 24.779999999999973, 26.845000000000027, 28.909999999999854, 28.909999999999854, 30.97499999999991, 33.039999999999964, 35.10500000000002, 37.169999999999845, 37.169999999999845, 39.2349999999999, 41.299999999999955, 43.36500000000001, 45.429999999999836, 47.49499999999989, 49.559999999999945, 51.625, 53.68999999999983, 55.75499999999988, 57.819999999999936, 59.88499999999999, 64.01499999999987, 66.07999999999993, 68.14499999999998, 70.21000000000004, 72.27499999999986, 76.40499999999997, 78.47000000000003, 80.53499999999985, 82.59999999999991, 84.66499999999996, 88.79499999999985, 90.8599999999999, 92.92499999999995, 97.05499999999984, 101.18499999999995, 103.25, 105.31499999999983, 109.44499999999994, 113.57500000000005, 115.63999999999987, 117.70499999999993, 121.83500000000004, 125.96499999999992, 130.09500000000003, 132.15999999999985, 134.2249999999999, 138.35500000000002, 142.4849999999999, 146.615, 150.7449999999999, 154.875, 159.00499999999988, 163.135, 167.26499999999987, 171.39499999999998, 173.46000000000004, 175.52499999999986, 179.65499999999997, 183.78499999999985, 187.91499999999996, 192.04499999999985, 194.1099999999999, 196.17499999999995, 200.30499999999984, 204.43499999999995, 206.5, 208.56499999999983, 212.69499999999994, 214.76, 216.82499999999982, 220.95499999999993, 223.01999999999998, 225.08500000000004, 229.21499999999992, 231.27999999999997, 233.34500000000003, 235.40999999999985, 237.4749999999999, 241.60500000000002, 243.66999999999985, 245.7349999999999, 247.79999999999995, 249.865, 251.92999999999984, 253.9949999999999, 256.05999999999995, 258.125, 260.1899999999998, 262.2549999999999, 264.31999999999994, 266.385, 268.4499999999998, 270.5149999999999, 272.5799999999999, 274.645, 276.71000000000004, 276.71000000000004, 278.77499999999986, 280.8399999999999, 282.905, 284.97, 284.97, 287.03499999999985, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.29499999999985, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 303.55499999999984, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03]</t>
         </is>
       </c>
     </row>
@@ -523,22 +523,22 @@
         <v>4.869023273931249e-05</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>378.5676384364821</v>
+        <v>-214.7102409638554</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>155.2382247557003</v>
+        <v>507.4177710843373</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -97.05499999999999]</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 303.55500000000006, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.0350000000001, 284.97, 284.97, 282.905, 280.8399999999999, 278.7750000000001, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.99500000000012, 249.865, 247.79999999999995, 245.7349999999999, 243.67000000000007, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82500000000005, 212.69499999999994, 210.6300000000001, 208.56500000000005, 204.43499999999995, 202.37000000000012, 200.30500000000006, 196.17499999999995, 192.04500000000007, 187.91499999999996, 183.78500000000008, 181.72000000000003, 179.65499999999997, 175.5250000000001, 171.39499999999998, 167.2650000000001, 163.135, 159.0050000000001, 154.875, 150.74500000000012, 146.615, 142.48500000000013, 138.35500000000002, 134.2249999999999, 132.16000000000008, 130.09500000000003, 125.96499999999992, 121.83500000000004, 117.70499999999993, 115.6400000000001, 113.57500000000005, 109.44499999999994, 105.31500000000005, 103.25, 101.18499999999995, 97.05500000000006, 92.92499999999995, 90.86000000000013, 88.79500000000007, 86.73000000000002, 84.66499999999996, 80.53500000000008, 78.47000000000003, 76.40499999999997, 72.27500000000009, 70.21000000000004, 68.14499999999998, 66.07999999999993, 64.0150000000001, 61.950000000000045, 59.88499999999999, 55.75500000000011, 53.690000000000055, 51.625, 49.559999999999945, 47.49500000000012, 45.430000000000064, 43.36500000000001, 41.299999999999955, 39.23500000000013, 37.17000000000007, 37.17000000000007, 35.10500000000002, 33.039999999999964, 30.97499999999991, 28.910000000000082, 28.910000000000082, 26.845000000000027, 24.779999999999973, 22.714999999999918, 20.65000000000009, 20.65000000000009, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.3900000000001, 12.3900000000001, 12.3900000000001, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.130000000000109, 4.130000000000109, 4.130000000000109, 4.130000000000109, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.130000000000109, 4.130000000000109, 4.130000000000109, 4.130000000000109, 4.130000000000109, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.3900000000001, 12.3900000000001, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.65000000000009, 20.65000000000009, 22.714999999999918, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.910000000000082, 30.97499999999991, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.17000000000007, 39.23500000000013, 41.299999999999955, 43.36500000000001, 45.430000000000064, 47.49500000000012, 49.559999999999945, 51.625, 53.690000000000055, 55.75500000000011, 57.819999999999936, 59.88499999999999, 61.950000000000045, 64.0150000000001, 68.14499999999998, 70.21000000000004, 72.27500000000009, 74.33999999999992, 76.40499999999997, 80.53500000000008, 82.59999999999991, 84.66499999999996, 88.79500000000007, 90.86000000000013, 92.92499999999995, 97.05500000000006, 99.12000000000012, 101.18499999999995, 105.31500000000005, 109.44499999999994, 111.50999999999999, 113.57500000000005, 117.70499999999993, 121.83500000000004, 125.96499999999992, 130.09500000000003, 132.16000000000008, 134.2249999999999, 138.35500000000002, 142.48500000000013, 146.615, 150.74500000000012, 154.875, 159.0050000000001, 163.135, 167.2650000000001, 171.39499999999998, 173.46000000000004, 175.5250000000001, 179.65499999999997, 183.78500000000008, 187.91499999999996, 189.98000000000002, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.37000000000012, 204.43499999999995, 208.56500000000005, 212.69499999999994, 214.76, 216.82500000000005, 220.95499999999993, 223.01999999999998, 225.08500000000004, 227.1500000000001, 229.21499999999992, 233.34500000000003, 235.41000000000008, 237.4749999999999, 239.53999999999996, 241.60500000000002, 245.7349999999999, 247.79999999999995, 249.865, 251.93000000000006, 253.99500000000012, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 268.45000000000005, 270.5150000000001, 272.5799999999999, 274.645, 276.71000000000004, 278.7750000000001, 280.8399999999999, 280.8399999999999, 282.905, 284.97, 287.0350000000001, 289.0999999999999, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55500000000006, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -552,22 +552,22 @@
         <v>9.738046547862498e-05</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>378.5449672131147</v>
+        <v>-214.8736697247707</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>153.466737704918</v>
+        <v>487.6620642201834</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-353.115, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -256.06, -253.995, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -196.17499999999998, -194.10999999999999, -189.98, -185.85, -181.72, -177.59, -175.525, -173.46, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405]</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>[303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42500000000007, 297.36, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 293.2299999999999, 291.1650000000001, 289.1, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.9050000000001, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.64499999999987, 272.58000000000004, 270.515, 268.44999999999993, 266.3849999999999, 264.32000000000005, 262.255, 260.18999999999994, 258.1249999999999, 256.06000000000006, 253.995, 251.92999999999995, 249.8649999999999, 247.80000000000007, 245.735, 241.6049999999999, 239.54000000000008, 237.47500000000002, 235.40999999999997, 233.3449999999999, 229.21500000000003, 227.14999999999998, 225.08499999999992, 220.95500000000004, 218.89, 216.82499999999993, 212.69500000000005, 210.63, 208.56499999999994, 204.43500000000006, 200.30499999999995, 198.2399999999999, 196.17500000000007, 192.04499999999996, 187.91500000000008, 183.78499999999997, 179.6550000000001, 177.59000000000003, 175.52499999999998, 171.3950000000001, 167.265, 163.13499999999988, 159.005, 154.8749999999999, 150.745, 146.6149999999999, 142.485, 138.3549999999999, 136.29000000000008, 134.22500000000002, 130.0949999999999, 125.96500000000003, 121.83499999999992, 117.70500000000004, 115.63999999999999, 113.57499999999993, 109.44500000000005, 105.31499999999994, 103.24999999999989, 101.18500000000006, 97.05499999999995, 92.92500000000007, 90.86000000000001, 88.79499999999996, 84.66500000000008, 82.60000000000002, 80.53499999999997, 78.46999999999991, 76.40500000000009, 72.27499999999998, 70.20999999999992, 68.1450000000001, 66.08000000000004, 64.01499999999999, 59.88499999999988, 57.82000000000005, 55.754999999999995, 53.68999999999994, 51.624999999999886, 49.56000000000006, 47.495000000000005, 45.42999999999995, 43.364999999999895, 41.30000000000007, 39.235000000000014, 37.16999999999996, 37.16999999999996, 35.104999999999905, 33.04000000000008, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 26.845000000000027, 28.909999999999968, 28.909999999999968, 30.975000000000023, 33.04000000000008, 35.104999999999905, 37.16999999999996, 39.235000000000014, 41.30000000000007, 43.364999999999895, 45.42999999999995, 47.495000000000005, 49.56000000000006, 51.624999999999886, 53.68999999999994, 55.754999999999995, 57.82000000000005, 59.88499999999988, 61.94999999999993, 64.01499999999999, 68.1450000000001, 70.20999999999992, 72.27499999999998, 74.34000000000003, 76.40500000000009, 80.53499999999997, 82.60000000000002, 84.66500000000008, 88.79499999999996, 90.86000000000001, 92.92500000000007, 97.05499999999995, 99.12, 101.18500000000006, 105.31499999999994, 109.44500000000005, 111.50999999999988, 113.57499999999993, 117.70500000000004, 121.83499999999992, 125.96500000000003, 130.0949999999999, 132.15999999999997, 134.22500000000002, 138.3549999999999, 142.485, 146.6149999999999, 150.745, 154.8749999999999, 159.005, 163.13499999999988, 167.265, 169.33000000000004, 171.3950000000001, 175.52499999999998, 179.6550000000001, 183.78499999999997, 187.91500000000008, 189.9799999999999, 192.04499999999996, 196.17500000000007, 200.30499999999995, 202.37, 204.43500000000006, 208.56499999999994, 210.63, 212.69500000000005, 216.82499999999993, 218.89, 220.95500000000004, 225.08499999999992, 227.14999999999998, 229.21500000000003, 231.2800000000001, 233.3449999999999, 237.47500000000002, 239.54000000000008, 241.6049999999999, 243.66999999999996, 245.735, 247.80000000000007, 249.8649999999999, 251.92999999999995, 253.995, 256.06000000000006, 258.1249999999999, 260.18999999999994, 262.255, 264.32000000000005, 266.3849999999999, 268.44999999999993, 270.515, 272.58000000000004, 274.64499999999987, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.9050000000001, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 289.1, 291.1650000000001, 293.2299999999999, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 297.36, 299.42500000000007, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995]</t>
+          <t>[541.03, 536.9, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 487.34, 485.275, 483.21, 481.145, 481.145, 479.08, 477.015, 477.015, 474.95, 472.885, 472.885, 470.82, 468.755, 468.755, 466.69, 464.625, 464.625, 464.625, 464.625, 462.56, 460.495, 460.495, 460.495, 460.495, 460.495, 458.43, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 458.43, 460.495, 460.495, 460.495, 460.495, 460.495, 462.56, 464.625, 464.625, 464.625, 464.625, 466.69, 468.755, 468.755, 470.82, 472.885, 472.885, 474.95, 477.015, 477.015, 479.08, 481.145, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
         <v>0.0001460706982179375</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>378.3792996742671</v>
+        <v>-216.1578461538461</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>155.8705048859935</v>
+        <v>468.9138461538461</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -245.73499999999999, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -187.915, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015]</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999983, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42499999999984, 297.36, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 291.16499999999985, 289.1, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.90499999999986, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.64499999999987, 272.58000000000004, 270.515, 268.44999999999993, 266.3849999999999, 264.32000000000005, 262.255, 260.18999999999994, 258.1249999999999, 256.06000000000006, 253.995, 249.8649999999999, 247.79999999999984, 245.735, 243.66999999999996, 241.6049999999999, 239.53999999999985, 237.47500000000002, 233.3449999999999, 231.27999999999986, 229.21500000000003, 225.08499999999992, 223.01999999999987, 220.95500000000004, 216.82499999999993, 212.69500000000005, 210.63, 208.56499999999994, 204.43500000000006, 200.30499999999995, 198.2399999999999, 196.17499999999984, 192.04499999999996, 187.91499999999985, 183.78499999999997, 179.65499999999986, 177.59000000000003, 175.52499999999998, 171.39499999999987, 167.265, 163.13499999999988, 159.005, 154.8749999999999, 150.745, 146.6149999999999, 142.485, 140.41999999999996, 138.3549999999999, 134.22500000000002, 130.0949999999999, 125.96500000000003, 121.83499999999992, 119.76999999999987, 117.70500000000004, 113.57499999999993, 109.44500000000005, 107.38, 105.31499999999994, 101.18500000000006, 97.05499999999995, 94.9899999999999, 92.92499999999984, 88.79499999999996, 86.7299999999999, 84.66499999999985, 82.60000000000002, 80.53499999999997, 76.40499999999986, 74.34000000000003, 72.27499999999998, 70.20999999999992, 68.14499999999987, 64.01499999999999, 61.94999999999993, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.364999999999895, 41.299999999999955, 39.2349999999999, 37.16999999999996, 35.104999999999905, 33.039999999999964, 33.039999999999964, 30.97499999999991, 28.909999999999968, 26.844999999999914, 24.779999999999973, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 26.844999999999914, 28.909999999999968, 28.909999999999968, 30.97499999999991, 33.039999999999964, 35.104999999999905, 37.16999999999996, 39.2349999999999, 41.299999999999955, 41.299999999999955, 43.364999999999895, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 64.01499999999999, 66.08000000000004, 68.14499999999987, 70.20999999999992, 72.27499999999998, 76.40499999999986, 78.46999999999991, 80.53499999999997, 82.60000000000002, 84.66499999999985, 88.79499999999996, 90.86000000000001, 92.92499999999984, 97.05499999999995, 101.18500000000006, 103.24999999999989, 105.31499999999994, 109.44500000000005, 113.57499999999993, 115.63999999999999, 117.70500000000004, 121.83499999999992, 125.96500000000003, 130.0949999999999, 132.15999999999997, 134.22500000000002, 138.3549999999999, 142.485, 146.6149999999999, 150.745, 154.8749999999999, 159.005, 163.13499999999988, 167.265, 171.39499999999987, 173.45999999999992, 175.52499999999998, 179.65499999999986, 183.78499999999997, 187.91499999999985, 189.9799999999999, 192.04499999999996, 196.17499999999984, 200.30499999999995, 202.37, 204.43500000000006, 208.56499999999994, 212.69500000000005, 214.75999999999988, 216.82499999999993, 220.95500000000004, 223.01999999999987, 225.08499999999992, 229.21500000000003, 231.27999999999986, 233.3449999999999, 235.40999999999997, 237.47500000000002, 239.53999999999985, 241.6049999999999, 245.735, 247.79999999999984, 249.8649999999999, 251.92999999999995, 253.995, 256.06000000000006, 258.1249999999999, 260.18999999999994, 262.255, 264.32000000000005, 266.3849999999999, 268.44999999999993, 270.515, 272.58000000000004, 272.58000000000004, 274.64499999999987, 276.7099999999999, 278.775, 280.84000000000003, 282.90499999999986, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 289.1, 291.16499999999985, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 297.36, 299.42499999999984, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 307.68499999999983, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 307.68499999999983]</t>
+          <t>[541.03, 538.965, 536.9, 532.77, 528.64, 526.5749999999999, 524.51, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 456.365, 456.365, 454.3, 452.235, 450.17, 448.10499999999996, 448.10499999999996, 446.03999999999996, 443.97499999999997, 443.97499999999997, 441.90999999999997, 439.84499999999997, 439.84499999999997, 437.78, 435.715, 435.715, 435.715, 433.65, 431.585, 431.585, 431.585, 431.585, 429.52, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 429.52, 431.585, 431.585, 431.585, 431.585, 433.65, 435.715, 435.715, 435.715, 437.78, 439.84499999999997, 439.84499999999997, 439.84499999999997, 441.90999999999997, 443.97499999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 448.10499999999996, 450.17, 452.235, 454.3, 456.365, 456.365, 458.43, 460.495, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -610,22 +610,22 @@
         <v>0.00019476093095725</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>378.2606065573771</v>
+        <v>-215.35</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>153.9135901639344</v>
+        <v>449.6221428571429</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995]</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>[303.55499999999995, 301.4900000000001, 301.4900000000001, 301.4900000000001, 301.4900000000001, 299.42500000000007, 297.36, 297.36, 295.29499999999996, 293.23000000000013, 293.23000000000013, 293.23000000000013, 291.1650000000001, 289.1, 289.1, 287.03499999999997, 284.97000000000014, 282.9050000000001, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.6450000000001, 272.58000000000004, 270.515, 268.44999999999993, 266.3850000000001, 264.32000000000005, 262.255, 260.18999999999994, 258.1250000000001, 256.06000000000006, 253.995, 251.92999999999995, 249.86500000000012, 247.80000000000007, 245.735, 241.60500000000013, 239.54000000000008, 237.47500000000002, 235.40999999999997, 233.34500000000014, 229.21500000000003, 227.14999999999998, 225.08499999999992, 220.95500000000004, 218.89, 216.82499999999993, 212.69500000000005, 208.56499999999994, 206.5000000000001, 204.43500000000006, 200.30499999999995, 196.17500000000007, 194.11, 192.04499999999996, 187.91500000000008, 183.78499999999997, 179.6550000000001, 175.52499999999998, 171.3950000000001, 169.33000000000004, 167.265, 163.1350000000001, 159.005, 154.8750000000001, 150.745, 148.67999999999995, 146.61500000000012, 142.485, 138.35500000000013, 134.22500000000002, 130.09500000000014, 125.96500000000003, 121.83499999999992, 119.7700000000001, 117.70500000000004, 113.57499999999993, 109.44500000000005, 107.38, 105.31499999999994, 101.18500000000006, 97.05499999999995, 94.99000000000012, 92.92500000000007, 88.79500000000007, 86.73000000000002, 84.66500000000008, 80.53500000000008, 78.47000000000003, 76.40500000000009, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 39.235000000000014, 37.17000000000007, 35.10500000000002, 33.04000000000008, 33.04000000000008, 30.975000000000023, 28.910000000000082, 26.845000000000027, 24.780000000000086, 24.780000000000086, 22.715000000000032, 20.65000000000009, 18.585000000000036, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.65000000000009, 20.65000000000009, 22.715000000000032, 24.780000000000086, 24.780000000000086, 26.845000000000027, 28.910000000000082, 30.975000000000023, 33.04000000000008, 33.04000000000008, 35.10500000000002, 37.17000000000007, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 47.495000000000005, 49.56000000000006, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 68.14499999999998, 70.21000000000004, 72.27499999999998, 74.34000000000003, 76.40500000000009, 80.53500000000008, 82.60000000000002, 84.66500000000008, 88.79500000000007, 90.86000000000001, 92.92500000000007, 97.05499999999995, 99.12, 101.18500000000006, 105.31499999999994, 109.44500000000005, 111.5100000000001, 113.57499999999993, 117.70500000000004, 121.83499999999992, 125.96500000000003, 130.09500000000014, 132.15999999999997, 134.22500000000002, 138.35500000000013, 142.485, 146.61500000000012, 150.745, 154.8750000000001, 159.005, 163.1350000000001, 167.265, 169.33000000000004, 171.3950000000001, 175.52499999999998, 179.6550000000001, 183.78499999999997, 187.91500000000008, 189.98000000000013, 192.04499999999996, 196.17500000000007, 200.30499999999995, 202.37, 204.43500000000006, 208.56499999999994, 210.63, 212.69500000000005, 216.82499999999993, 218.89, 220.95500000000004, 225.08499999999992, 227.14999999999998, 229.21500000000003, 233.34500000000014, 235.40999999999997, 237.47500000000002, 239.54000000000008, 241.60500000000013, 243.66999999999996, 245.735, 247.80000000000007, 249.86500000000012, 251.92999999999995, 253.995, 258.1250000000001, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.3850000000001, 268.44999999999993, 270.515, 272.58000000000004, 274.6450000000001, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.9050000000001, 284.97000000000014, 284.97000000000014, 287.03499999999997, 289.1, 289.1, 291.1650000000001, 293.23000000000013, 293.23000000000013, 295.29499999999996, 297.36, 297.36, 297.36, 299.42500000000007, 301.4900000000001, 301.4900000000001, 301.4900000000001, 301.4900000000001, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995]</t>
+          <t>[541.03, 536.9, 532.77, 528.64, 526.5749999999999, 524.51, 520.38, 516.25, 512.12, 507.99, 505.925, 503.86, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 433.65, 431.585, 431.585, 429.52, 427.455, 425.39, 423.325, 421.26, 419.195, 419.195, 417.13, 415.065, 415.065, 413.0, 410.935, 410.935, 408.87, 406.805, 406.805, 406.805, 404.74, 402.675, 402.675, 402.675, 402.675, 400.61, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 400.61, 402.675, 402.675, 402.675, 404.74, 406.805, 406.805, 406.805, 408.87, 410.935, 410.935, 413.0, 415.065, 415.065, 417.13, 419.195, 419.195, 421.26, 423.325, 423.325, 425.39, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 450.17, 452.235, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 512.12, 514.185, 516.25, 520.38, 524.51, 528.64, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
         <v>0.0002434511636965625</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>377.0362871287128</v>
+        <v>-215.3106666666666</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>153.1984653465346</v>
+        <v>429.7077272727271</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -237.475, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -196.17499999999998, -194.10999999999999, -189.98, -185.85, -181.72, -177.59, -175.525, -173.46, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885]</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>[303.55500000000006, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.0350000000001, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.7750000000001, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.9949999999999, 251.93000000000006, 249.865, 245.7349999999999, 243.67000000000007, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82500000000005, 214.76, 212.69499999999994, 208.56500000000005, 206.5, 204.43499999999995, 200.30500000000006, 196.17499999999995, 192.04500000000007, 189.98000000000002, 187.91499999999996, 183.78500000000008, 179.65499999999997, 175.5250000000001, 171.39499999999998, 167.2650000000001, 163.135, 159.0050000000001, 154.875, 150.7449999999999, 146.615, 142.4849999999999, 138.35500000000002, 134.2249999999999, 130.09500000000003, 125.96499999999992, 121.83500000000004, 119.76999999999998, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18499999999995, 97.05499999999995, 94.99000000000001, 92.92499999999995, 88.79499999999996, 86.73000000000002, 84.66499999999996, 80.53499999999997, 78.47000000000003, 76.40499999999997, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 51.625, 49.56000000000006, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 66.08000000000004, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 80.53499999999997, 82.60000000000002, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31500000000005, 109.44500000000005, 111.50999999999999, 113.57500000000005, 117.70500000000004, 121.83500000000004, 125.96499999999992, 130.09500000000003, 132.16000000000008, 134.2249999999999, 138.35500000000002, 142.4849999999999, 146.615, 150.7449999999999, 154.875, 159.0050000000001, 163.135, 167.2650000000001, 169.32999999999993, 171.39499999999998, 175.5250000000001, 179.65499999999997, 183.78500000000008, 185.8499999999999, 187.91499999999996, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.3699999999999, 204.43499999999995, 208.56500000000005, 210.6300000000001, 212.69499999999994, 216.82500000000005, 218.8900000000001, 220.95499999999993, 225.08500000000004, 227.1500000000001, 229.21499999999992, 231.27999999999997, 233.34500000000003, 237.4749999999999, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.7349999999999, 247.79999999999995, 249.865, 251.93000000000006, 253.9949999999999, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 270.5150000000001, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.7750000000001, 280.8399999999999, 280.8399999999999, 282.905, 284.97, 284.97, 287.0350000000001, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 301.49, 303.55500000000006, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 303.55500000000006]</t>
+          <t>[541.03, 538.965, 536.9, 532.77, 528.64, 524.51, 520.38, 516.25, 512.12, 507.99, 503.86, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 483.21, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 425.39, 423.325, 421.26, 419.195, 417.13, 415.065, 413.0, 410.935, 408.87, 406.805, 404.74, 402.675, 400.61, 398.545, 396.48, 394.41499999999996, 394.41499999999996, 392.34999999999997, 390.28499999999997, 388.21999999999997, 386.155, 386.155, 384.09, 382.025, 382.025, 379.96, 377.895, 377.895, 377.895, 375.83, 373.765, 373.765, 373.765, 371.7, 369.635, 369.635, 369.635, 369.635, 369.635, 367.57, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 367.57, 369.635, 369.635, 369.635, 369.635, 369.635, 371.7, 373.765, 373.765, 373.765, 373.765, 375.83, 377.895, 377.895, 379.96, 382.025, 382.025, 384.09, 386.155, 386.155, 388.21999999999997, 390.28499999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 396.48, 398.545, 400.61, 402.675, 402.675, 404.74, 406.805, 408.87, 410.935, 413.0, 415.065, 417.13, 419.195, 421.26, 425.39, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 495.59999999999997, 499.72999999999996, 503.86, 505.925, 507.99, 512.12, 516.25, 520.38, 524.51, 528.64, 532.77, 536.9, 538.965, 541.03]</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
         <v>0.000292141396435875</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>376.9335901639344</v>
+        <v>-216.3030769230769</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>155.2270655737705</v>
+        <v>412.0696153846154</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -183.785, -181.72, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015]</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 303.55500000000006, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.03499999999985, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.77499999999986, 276.71000000000004, 274.645, 272.5799999999999, 270.5149999999999, 268.45000000000005, 266.385, 264.31999999999994, 262.2549999999999, 260.19000000000005, 258.125, 256.05999999999995, 253.9949999999999, 251.93000000000006, 249.865, 247.79999999999995, 245.7349999999999, 241.60500000000002, 239.53999999999996, 237.4749999999999, 235.40999999999985, 233.34500000000003, 229.21499999999992, 227.14999999999986, 225.08500000000004, 220.95499999999993, 218.88999999999987, 216.82500000000005, 212.69499999999994, 208.56500000000005, 206.5, 204.43499999999995, 200.30500000000006, 196.17499999999995, 192.04500000000007, 189.98000000000002, 187.91499999999996, 183.78499999999985, 179.65499999999997, 175.52499999999986, 171.39499999999998, 167.26499999999987, 163.135, 159.00499999999988, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.2249999999999, 130.0949999999999, 125.96499999999992, 123.89999999999998, 121.83499999999992, 117.70499999999993, 113.57499999999993, 111.50999999999999, 109.44499999999994, 105.31499999999994, 101.18499999999995, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.33999999999992, 72.27499999999998, 70.20999999999992, 68.14499999999998, 66.07999999999993, 64.01499999999999, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.844999999999914, 24.779999999999973, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 24.779999999999973, 26.844999999999914, 28.909999999999968, 30.975000000000023, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 68.14499999999998, 70.20999999999992, 72.27499999999998, 74.33999999999992, 76.40499999999997, 80.53499999999997, 82.60000000000002, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31499999999994, 109.44499999999994, 111.50999999999999, 113.57499999999993, 117.70499999999993, 121.83499999999992, 125.96499999999992, 130.0949999999999, 132.15999999999997, 134.2249999999999, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.00499999999988, 163.135, 167.26499999999987, 169.32999999999993, 171.39499999999998, 175.52499999999986, 179.65499999999997, 183.78499999999985, 187.91499999999996, 189.98000000000002, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.3699999999999, 204.43499999999995, 208.56500000000005, 210.62999999999988, 212.69499999999994, 216.82500000000005, 218.88999999999987, 220.95499999999993, 225.08500000000004, 227.14999999999986, 229.21499999999992, 233.34500000000003, 235.40999999999985, 237.4749999999999, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.7349999999999, 247.79999999999995, 249.865, 253.9949999999999, 256.05999999999995, 258.125, 260.19000000000005, 262.2549999999999, 264.31999999999994, 264.31999999999994, 266.385, 268.45000000000005, 270.5149999999999, 272.5799999999999, 274.645, 276.71000000000004, 276.71000000000004, 278.77499999999986, 280.8399999999999, 282.905, 284.97, 284.97, 287.03499999999985, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 303.55500000000006, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 528.64, 524.51, 522.4449999999999, 520.38, 516.25, 512.12, 510.055, 507.99, 503.86, 499.72999999999996, 495.59999999999997, 491.46999999999997, 487.34, 483.21, 479.08, 474.95, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 415.065, 413.0, 408.87, 406.805, 404.74, 402.675, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 390.28499999999997, 388.21999999999997, 386.155, 384.09, 382.025, 379.96, 377.895, 375.83, 373.765, 371.7, 369.635, 369.635, 367.57, 365.505, 363.44, 361.375, 361.375, 359.31, 357.245, 355.18, 353.115, 353.115, 351.05, 348.985, 348.985, 348.985, 346.92, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 340.72499999999997, 340.72499999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 338.65999999999997, 340.72499999999997, 340.72499999999997, 340.72499999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 346.92, 348.985, 348.985, 348.985, 351.05, 353.115, 353.115, 355.18, 357.245, 359.31, 361.375, 361.375, 363.44, 365.505, 367.57, 369.635, 369.635, 371.7, 373.765, 375.83, 377.895, 379.96, 382.025, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 396.48, 400.61, 402.675, 404.74, 406.805, 408.87, 413.0, 415.065, 417.13, 421.26, 423.325, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 470.82, 474.95, 479.08, 481.145, 483.21, 487.34, 491.46999999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 512.12, 516.25, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -697,22 +697,22 @@
         <v>0.0003408316291751875</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>376.8727227722772</v>
+        <v>-216.2034951456311</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>153.3892904290429</v>
+        <v>397.0614077669903</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -200.305, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535]</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>[303.55500000000006, 301.49, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.3600000000001, 297.3600000000001, 295.2950000000001, 293.23, 293.23, 293.23, 291.16499999999996, 289.10000000000014, 289.10000000000014, 287.0350000000001, 284.97, 282.905, 280.84000000000015, 280.84000000000015, 278.7750000000001, 276.71000000000004, 274.645, 272.58000000000015, 272.58000000000015, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.99500000000012, 249.865, 247.79999999999995, 245.73500000000013, 243.67000000000007, 241.60500000000002, 239.53999999999996, 237.47500000000014, 233.34500000000003, 231.27999999999997, 229.21500000000015, 225.08500000000004, 223.01999999999998, 220.95500000000015, 216.82500000000005, 214.76, 212.69499999999994, 208.56500000000005, 204.43499999999995, 202.37000000000012, 200.30500000000006, 196.17499999999995, 192.04500000000007, 187.91499999999996, 185.85000000000014, 183.78500000000008, 179.6550000000001, 175.5250000000001, 171.3950000000001, 167.2650000000001, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.0300000000001, 125.96500000000003, 121.83500000000004, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18500000000006, 99.12, 97.05500000000006, 92.92500000000007, 90.86000000000001, 88.79500000000007, 84.66500000000008, 82.60000000000002, 80.53500000000008, 76.40500000000009, 74.34000000000003, 72.27500000000009, 70.21000000000004, 68.1450000000001, 64.0150000000001, 61.950000000000045, 59.885000000000105, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 39.235000000000014, 37.17000000000007, 35.10500000000002, 33.04000000000008, 30.975000000000023, 28.910000000000082, 28.910000000000082, 26.845000000000027, 24.780000000000086, 22.715000000000032, 20.65000000000009, 20.65000000000009, 18.585000000000036, 16.520000000000095, 16.520000000000095, 14.455000000000041, 12.3900000000001, 12.3900000000001, 12.3900000000001, 10.325000000000045, 8.260000000000105, 8.260000000000105, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.260000000000105, 8.260000000000105, 8.260000000000105, 10.325000000000045, 12.3900000000001, 12.3900000000001, 14.455000000000041, 16.520000000000095, 16.520000000000095, 18.585000000000036, 20.65000000000009, 20.65000000000009, 22.715000000000032, 24.780000000000086, 26.845000000000027, 28.910000000000082, 28.910000000000082, 30.975000000000023, 33.04000000000008, 35.10500000000002, 37.17000000000007, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 45.430000000000064, 47.495000000000005, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.885000000000105, 61.950000000000045, 64.0150000000001, 66.08000000000004, 68.1450000000001, 72.27500000000009, 74.34000000000003, 76.40500000000009, 80.53500000000008, 82.60000000000002, 84.66500000000008, 88.79500000000007, 90.86000000000001, 92.92500000000007, 97.05500000000006, 99.12, 101.18500000000006, 105.31500000000005, 109.44500000000005, 111.5100000000001, 113.57500000000005, 117.70500000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 132.16000000000008, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.2650000000001, 169.33000000000004, 171.3950000000001, 175.5250000000001, 179.6550000000001, 183.78500000000008, 185.85000000000014, 187.91499999999996, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.37000000000012, 204.43499999999995, 208.56500000000005, 210.6300000000001, 212.69499999999994, 216.82500000000005, 218.8900000000001, 220.95500000000015, 225.08500000000004, 227.1500000000001, 229.21500000000015, 231.27999999999997, 233.34500000000003, 237.47500000000014, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.73500000000013, 247.79999999999995, 249.865, 251.93000000000006, 253.99500000000012, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 270.5150000000001, 272.58000000000015, 272.58000000000015, 274.645, 276.71000000000004, 278.7750000000001, 280.84000000000015, 280.84000000000015, 282.905, 284.97, 284.97, 287.0350000000001, 289.10000000000014, 289.10000000000014, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3600000000001, 297.3600000000001, 297.3600000000001, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55500000000006, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 303.55500000000006]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 462.56, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 382.025, 379.96, 377.895, 375.83, 371.7, 369.635, 367.57, 365.505, 363.44, 361.375, 359.31, 357.245, 355.18, 353.115, 351.05, 348.985, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 332.465, 330.4, 328.335, 326.27, 324.205, 324.205, 322.14, 320.075, 320.075, 318.01, 315.945, 315.945, 315.945, 313.88, 311.815, 311.815, 311.815, 309.75, 307.685, 307.685, 307.685, 307.685, 307.685, 307.685, 305.62, 303.555, 303.555, 303.555, 303.555, 303.555, 303.555, 303.555, 303.555, 305.62, 307.685, 307.685, 307.685, 307.685, 307.685, 309.75, 311.815, 311.815, 311.815, 311.815, 313.88, 315.945, 315.945, 318.01, 320.075, 320.075, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 346.92, 348.985, 351.05, 353.115, 355.18, 357.245, 359.31, 361.375, 363.44, 365.505, 367.57, 369.635, 371.7, 375.83, 377.895, 379.96, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 396.48, 400.61, 402.675, 404.74, 408.87, 410.935, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 479.08, 483.21, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
         <v>0.0003895218619144999</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>376.7440163934426</v>
+        <v>-217.6384848484849</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>155.3489344262295</v>
+        <v>385.3683333333333</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -245.73499999999999, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -187.915, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -105.315]</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 303.55500000000006, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.0350000000001, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.7750000000001, 276.71000000000004, 274.645, 272.5799999999999, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.99500000000012, 251.93000000000006, 249.865, 247.79999999999995, 245.7349999999999, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82500000000005, 214.76, 212.69500000000005, 208.56500000000005, 204.43500000000006, 202.37, 200.30500000000006, 196.17499999999995, 192.04499999999996, 187.91499999999996, 185.85000000000002, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96500000000003, 121.83500000000004, 117.70500000000004, 113.57500000000005, 111.50999999999999, 109.44500000000005, 105.31500000000005, 103.25, 101.18500000000006, 97.05500000000006, 92.92500000000007, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.21000000000004, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 41.30000000000007, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 28.909999999999968, 26.845000000000027, 24.779999999999973, 22.715000000000032, 20.649999999999977, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 47.495000000000005, 49.56000000000006, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 68.14499999999998, 70.21000000000004, 72.27499999999998, 74.34000000000003, 76.40499999999997, 80.53499999999997, 82.60000000000002, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92500000000007, 97.05500000000006, 99.12, 101.18500000000006, 105.31500000000005, 109.44500000000005, 111.50999999999999, 113.57500000000005, 117.70500000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 132.15999999999997, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.33000000000004, 171.39499999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 200.30500000000006, 202.37, 204.43500000000006, 208.56500000000005, 212.69500000000005, 214.76, 216.82500000000005, 218.8900000000001, 220.95499999999993, 225.08500000000004, 227.1500000000001, 229.21499999999992, 233.34500000000003, 235.41000000000008, 237.4749999999999, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.7349999999999, 249.865, 251.93000000000006, 253.99500000000012, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 268.45000000000005, 270.5150000000001, 272.5799999999999, 274.645, 276.71000000000004, 278.7750000000001, 280.8399999999999, 280.8399999999999, 282.905, 284.97, 284.97, 287.0350000000001, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 303.55500000000006, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 357.245, 355.18, 353.115, 351.05, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 307.685, 305.62, 303.555, 301.49, 299.425, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 293.23, 295.295, 295.295, 297.36, 299.425, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 348.985, 351.05, 353.115, 355.18, 359.31, 361.375, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 382.025, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 477.015, 479.08, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
     </row>
@@ -755,22 +755,22 @@
         <v>0.0004382120946538125</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>376.6546369636964</v>
+        <v>-216.7874545454546</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>153.3347689768976</v>
+        <v>380.7484545454545</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-258.125, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -229.215, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -204.435, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -163.135]</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>[303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42500000000007, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 293.2299999999999, 291.1650000000001, 289.1, 289.1, 287.03499999999997, 284.9699999999999, 282.9050000000001, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.64499999999987, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.3849999999999, 264.32000000000005, 262.255, 260.18999999999994, 258.1249999999999, 256.06000000000006, 253.995, 249.8649999999999, 247.80000000000007, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.27999999999997, 229.21500000000003, 225.08499999999992, 223.01999999999998, 220.95499999999993, 216.82499999999993, 214.76, 212.69499999999994, 208.56499999999994, 204.43499999999995, 202.37, 200.30499999999995, 196.17499999999995, 192.04499999999996, 187.91499999999996, 185.85000000000002, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.15999999999997, 130.09500000000003, 125.96500000000003, 121.83500000000004, 117.70499999999993, 113.57499999999993, 111.50999999999999, 109.44499999999994, 105.31499999999994, 101.18499999999995, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.34000000000003, 72.27499999999998, 70.21000000000004, 68.14499999999998, 64.01499999999999, 61.94999999999993, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 66.07999999999993, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 78.47000000000003, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31499999999994, 107.38, 109.44499999999994, 113.57499999999993, 117.70499999999993, 121.83500000000004, 125.96500000000003, 128.02999999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999993, 171.39499999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 210.63, 212.69499999999994, 216.82499999999993, 218.89, 220.95499999999993, 225.08499999999992, 227.14999999999998, 229.21500000000003, 231.27999999999997, 233.34500000000003, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 247.80000000000007, 249.8649999999999, 251.92999999999995, 253.995, 256.06000000000006, 258.1249999999999, 260.18999999999994, 262.255, 264.32000000000005, 266.3849999999999, 268.44999999999993, 270.515, 272.58000000000004, 272.58000000000004, 274.64499999999987, 276.7099999999999, 278.775, 280.84000000000003, 280.84000000000003, 282.9050000000001, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 289.1, 291.1650000000001, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 297.36, 299.42500000000007, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995]</t>
+          <t>[541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 541.03]</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
         <v>0.0004869023273931249</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>376.5273606557377</v>
+        <v>-216.3829933110368</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>155.4301803278688</v>
+        <v>362.9427424749164</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-192.045, -189.98, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -247.79999999999998, -245.73499999999999, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -192.045]</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999983, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42499999999984, 297.36, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 291.16499999999985, 289.1, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.90499999999986, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 258.1249999999999, 256.05999999999995, 253.9949999999999, 251.92999999999995, 249.8649999999999, 245.7349999999999, 243.66999999999996, 241.6049999999999, 239.53999999999996, 237.4749999999999, 233.3449999999999, 231.27999999999997, 229.21499999999992, 225.08499999999992, 223.01999999999998, 220.95499999999993, 216.82499999999993, 214.76, 212.69499999999994, 208.56499999999994, 204.43499999999995, 202.3699999999999, 200.30499999999995, 196.17499999999995, 192.04499999999996, 187.91499999999996, 185.8499999999999, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.7449999999999, 146.6149999999999, 142.4849999999999, 138.3549999999999, 134.2249999999999, 132.15999999999997, 130.0949999999999, 125.96499999999992, 121.83499999999992, 117.70499999999993, 115.63999999999999, 113.57499999999993, 109.44499999999994, 105.31499999999994, 103.25, 101.18499999999995, 97.05499999999995, 94.9899999999999, 92.92499999999995, 88.79499999999996, 86.7299999999999, 84.66499999999996, 80.53499999999997, 78.46999999999991, 76.40499999999997, 74.33999999999992, 72.27499999999998, 68.14499999999998, 66.07999999999993, 64.01499999999999, 61.94999999999993, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.364999999999895, 41.299999999999955, 39.2349999999999, 37.16999999999996, 35.104999999999905, 33.039999999999964, 30.97499999999991, 28.909999999999968, 28.909999999999968, 26.844999999999914, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 24.779999999999973, 26.844999999999914, 28.909999999999968, 30.97499999999991, 33.039999999999964, 33.039999999999964, 35.104999999999905, 37.16999999999996, 39.2349999999999, 41.299999999999955, 43.364999999999895, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 68.14499999999998, 70.20999999999992, 72.27499999999998, 74.33999999999992, 76.40499999999997, 80.53499999999997, 82.59999999999991, 84.66499999999996, 88.79499999999996, 90.8599999999999, 92.92499999999995, 97.05499999999995, 99.11999999999989, 101.18499999999995, 105.31499999999994, 109.44499999999994, 111.50999999999999, 113.57499999999993, 117.70499999999993, 121.83499999999992, 125.96499999999992, 128.02999999999997, 130.0949999999999, 134.2249999999999, 138.3549999999999, 142.4849999999999, 146.6149999999999, 150.7449999999999, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999992, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.9799999999999, 192.04499999999996, 196.17499999999995, 200.30499999999995, 202.3699999999999, 204.43499999999995, 208.56499999999994, 210.63, 212.69499999999994, 216.82499999999993, 218.89, 220.95499999999993, 225.08499999999992, 227.14999999999998, 229.21499999999992, 233.3449999999999, 235.40999999999997, 237.4749999999999, 239.53999999999996, 241.6049999999999, 243.66999999999996, 245.7349999999999, 249.8649999999999, 251.92999999999995, 253.9949999999999, 256.05999999999995, 258.1249999999999, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 274.645, 276.7099999999999, 278.775, 280.84000000000003, 280.84000000000003, 282.90499999999986, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 291.16499999999985, 293.2299999999999, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 299.42499999999984, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 307.68499999999983, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 307.68499999999983]</t>
+          <t>[214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 423.325, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 481.145, 483.21, 485.275, 487.34, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 505.925, 505.925, 507.99, 510.055, 510.055, 510.055, 510.055, 512.12, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 512.12, 510.055, 510.055, 510.055, 510.055, 510.055, 507.99, 505.925, 505.925, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 415.065, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76]</t>
         </is>
       </c>
     </row>
@@ -813,22 +813,22 @@
         <v>0.0005355925601324374</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>377.131699669967</v>
+        <v>-217.588300330033</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>153.4438118811881</v>
+        <v>331.8311881188118</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>303</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>[390.28499999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 390.28499999999997]</t>
+          <t>[-204.435, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -204.435, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -204.435]</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>[303.555, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 299.425, 297.36, 297.36, 297.36, 295.295, 293.23, 293.23, 293.23, 291.165, 289.1, 289.1, 287.03499999999997, 284.96999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 276.71, 274.645, 272.58, 270.515, 268.45, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.865, 247.8, 245.735, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 204.435, 202.37, 200.305, 196.175, 194.10999999999999, 192.045, 187.915, 183.785, 179.655, 175.525, 173.46, 171.395, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.355, 134.225, 130.095, 125.965, 121.83500000000001, 119.77000000000001, 117.70500000000001, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.145, 64.015, 61.95, 59.885000000000005, 57.82000000000001, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.3, 39.235, 37.17, 35.105000000000004, 33.040000000000006, 30.97500000000001, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.519999999999996, 16.519999999999996, 14.454999999999998, 12.39, 12.39, 12.39, 10.325000000000003, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 6.195, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 2.065000000000005, 0.0, 0.0, 2.065000000000005, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 6.195, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 10.325000000000003, 12.39, 12.39, 12.39, 14.454999999999998, 16.519999999999996, 16.519999999999996, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.97500000000001, 33.040000000000006, 33.040000000000006, 35.105000000000004, 37.17, 39.235, 41.3, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.82000000000001, 59.885000000000005, 61.95, 64.015, 66.08, 68.145, 70.21000000000001, 72.275, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70500000000001, 121.83500000000001, 123.9, 125.965, 130.095, 134.225, 138.355, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 161.07, 163.135, 167.265, 171.395, 175.525, 179.655, 183.785, 187.915, 189.98, 192.045, 196.175, 200.305, 202.37, 204.435, 208.565, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 233.34499999999997, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 245.735, 247.8, 249.865, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 280.84, 282.905, 284.96999999999997, 284.96999999999997, 287.03499999999997, 289.1, 289.1, 291.165, 293.23, 293.23, 293.23, 295.295, 297.36, 297.36, 297.36, 299.425, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 303.555, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.555]</t>
+          <t>[181.72, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 258.125, 260.19, 262.255, 264.32, 268.45, 270.515, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 326.27, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 382.025, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996, 396.48, 400.61, 402.675, 404.74, 408.87, 410.935, 413.0, 415.065, 417.13, 421.26, 423.325, 425.39, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 450.17, 452.235, 454.3, 456.365, 456.365, 458.43, 460.495, 462.56, 464.625, 464.625, 466.69, 468.755, 468.755, 470.82, 472.885, 472.885, 472.885, 474.95, 477.015, 477.015, 477.015, 477.015, 479.08, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 483.21, 485.275, 485.275, 483.21, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 479.08, 477.015, 477.015, 477.015, 477.015, 474.95, 472.885, 472.885, 472.885, 470.82, 468.755, 468.755, 466.69, 464.625, 464.625, 462.56, 460.495, 460.495, 458.43, 456.365, 454.3, 452.235, 452.235, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 433.65, 431.585, 429.52, 427.455, 425.39, 423.325, 421.26, 419.195, 417.13, 415.065, 413.0, 408.87, 406.805, 404.74, 402.675, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 309.75, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72]</t>
         </is>
       </c>
     </row>
@@ -842,22 +842,22 @@
         <v>0.0005842827928717499</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>376.1482131147541</v>
+        <v>-217.7580232558139</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>155.1458196721312</v>
+        <v>300.9411627906977</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-192.045, -189.98, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -192.045]</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.53999999999996, 237.47500000000002, 233.34500000000003, 231.27999999999997, 229.21500000000003, 225.08500000000004, 223.01999999999998, 220.95500000000004, 216.82500000000005, 212.69499999999994, 210.63, 208.56499999999994, 204.43499999999995, 200.30499999999995, 198.24, 196.17499999999995, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.59000000000003, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.41999999999996, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83500000000004, 119.76999999999998, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31499999999994, 101.18499999999995, 97.05499999999995, 94.99000000000001, 92.92499999999995, 88.79499999999996, 86.73000000000002, 84.66499999999996, 80.53499999999997, 78.47000000000003, 76.40499999999997, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 28.909999999999968, 26.845000000000027, 24.779999999999973, 22.715000000000032, 20.649999999999977, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 26.845000000000027, 28.909999999999968, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 45.42999999999995, 47.495000000000005, 51.625, 53.68999999999994, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 66.08000000000004, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 78.47000000000003, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 94.99000000000001, 97.05499999999995, 101.18499999999995, 105.31499999999994, 107.38, 109.44500000000005, 113.57500000000005, 117.70500000000004, 121.83500000000004, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.46000000000004, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 212.69499999999994, 214.76, 216.82500000000005, 220.95500000000004, 223.01999999999998, 225.08500000000004, 227.14999999999998, 229.21500000000003, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.45000000000005, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[152.81, 154.875, 154.875, 154.875, 154.875, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 163.135, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 177.59, 179.655, 179.655, 181.72, 183.785, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 239.54, 241.605, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 262.255, 264.32, 268.45, 272.58, 276.71, 278.775, 280.84, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 301.49, 305.62, 309.75, 313.88, 318.01, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 369.635, 371.7, 375.83, 377.895, 379.96, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 396.48, 400.61, 402.675, 404.74, 406.805, 408.87, 410.935, 413.0, 415.065, 417.13, 419.195, 419.195, 421.26, 423.325, 425.39, 427.455, 427.455, 429.52, 431.585, 433.65, 435.715, 435.715, 437.78, 439.84499999999997, 439.84499999999997, 439.84499999999997, 441.90999999999997, 443.97499999999997, 443.97499999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 448.10499999999996, 448.10499999999996, 448.10499999999996, 450.17, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 450.17, 448.10499999999996, 448.10499999999996, 448.10499999999996, 448.10499999999996, 446.03999999999996, 443.97499999999997, 443.97499999999997, 443.97499999999997, 441.90999999999997, 439.84499999999997, 439.84499999999997, 439.84499999999997, 437.78, 435.715, 435.715, 433.65, 431.585, 431.585, 429.52, 427.455, 425.39, 423.325, 423.325, 421.26, 419.195, 417.13, 415.065, 415.065, 413.0, 410.935, 408.87, 406.805, 404.74, 402.675, 400.61, 398.545, 396.48, 394.41499999999996, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 382.025, 379.96, 377.895, 375.83, 371.7, 369.635, 367.57, 365.505, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 185.85, 183.785, 181.72, 179.655, 179.655, 177.59, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 159.005, 159.005, 156.94, 154.875, 154.875, 154.875, 154.875, 152.81, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 152.81]</t>
         </is>
       </c>
     </row>
@@ -871,22 +871,22 @@
         <v>0.0006329730256110624</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>376.7500495049505</v>
+        <v>-217.9699504950495</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>153.5255940594059</v>
+        <v>269.7994059405941</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>303</v>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>[390.28499999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 390.28499999999997]</t>
+          <t>[-204.435, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -204.435, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -204.435]</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>[303.555, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 299.425, 297.36, 297.36, 297.36, 295.295, 293.23, 293.23, 293.23, 291.165, 289.1, 289.1, 287.035, 284.97, 284.97, 282.90500000000003, 280.84000000000003, 278.77500000000003, 276.71, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.865, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 229.21500000000003, 227.15000000000003, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 175.52500000000003, 173.46000000000004, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09499999999997, 125.96499999999999, 123.89999999999999, 121.835, 117.705, 113.575, 109.44500000000001, 107.38000000000001, 105.31499999999998, 101.18499999999999, 97.05499999999999, 94.99, 92.925, 88.795, 86.73, 84.665, 80.53500000000001, 78.46999999999998, 76.40499999999999, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 59.885000000000005, 57.82000000000001, 55.75500000000001, 53.68999999999998, 51.624999999999986, 49.55999999999999, 47.49499999999999, 45.42999999999999, 43.364999999999995, 41.3, 39.235, 37.17, 35.105000000000004, 33.040000000000006, 30.97500000000001, 28.91000000000001, 28.91000000000001, 26.844999999999985, 24.779999999999987, 24.779999999999987, 22.71499999999999, 20.64999999999999, 18.584999999999994, 16.519999999999996, 16.519999999999996, 16.519999999999996, 14.454999999999998, 12.39, 12.39, 10.325000000000003, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 10.325000000000003, 12.39, 12.39, 12.39, 14.454999999999998, 16.519999999999996, 16.519999999999996, 18.584999999999994, 20.64999999999999, 20.64999999999999, 22.71499999999999, 24.779999999999987, 24.779999999999987, 26.844999999999985, 28.91000000000001, 30.97500000000001, 33.040000000000006, 33.040000000000006, 35.105000000000004, 37.17, 39.235, 41.3, 43.364999999999995, 45.42999999999999, 47.49499999999999, 49.55999999999999, 51.624999999999986, 53.68999999999998, 55.75500000000001, 57.82000000000001, 59.885000000000005, 61.95, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 76.40499999999999, 78.46999999999998, 80.53500000000001, 82.60000000000001, 84.665, 88.795, 90.86, 92.925, 97.05499999999999, 99.11999999999999, 101.18499999999999, 105.31499999999998, 107.38000000000001, 109.44500000000001, 113.575, 117.705, 119.77, 121.835, 125.96499999999999, 130.09499999999997, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.46000000000004, 175.52500000000003, 179.65500000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21500000000003, 231.28000000000003, 233.34500000000003, 235.41000000000003, 237.47500000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.8, 249.865, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 272.58, 274.645, 276.71, 278.77500000000003, 280.84000000000003, 280.84000000000003, 282.90500000000003, 284.97, 284.97, 287.035, 289.1, 289.1, 291.165, 293.23, 293.23, 295.295, 297.36, 297.36, 297.36, 297.36, 299.425, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 303.555, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.555]</t>
+          <t>[119.77, 121.835, 121.835, 121.835, 121.835, 121.835, 121.835, 123.89999999999999, 125.965, 125.965, 125.965, 128.03, 130.095, 130.095, 130.095, 132.16, 134.225, 134.225, 136.29, 138.355, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 231.28, 233.345, 235.41, 239.54, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 264.32, 268.45, 272.58, 276.71, 280.84, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 299.425, 301.49, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 353.115, 355.18, 357.245, 359.31, 363.44, 365.505, 367.57, 369.635, 371.7, 373.765, 375.83, 377.895, 379.96, 382.025, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 394.41499999999996, 396.48, 398.545, 398.545, 400.61, 402.675, 404.74, 406.805, 406.805, 406.805, 408.87, 410.935, 410.935, 413.0, 415.065, 415.065, 415.065, 415.065, 417.13, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 421.26, 423.325, 423.325, 423.325, 421.26, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 417.13, 415.065, 415.065, 415.065, 415.065, 413.0, 410.935, 410.935, 410.935, 408.87, 406.805, 406.805, 404.74, 402.675, 402.675, 400.61, 398.545, 398.545, 396.48, 394.41499999999996, 392.34999999999997, 390.28499999999997, 390.28499999999997, 388.21999999999997, 386.155, 384.09, 382.025, 379.96, 377.895, 375.83, 373.765, 371.7, 369.635, 367.57, 365.505, 363.44, 361.375, 359.31, 357.245, 355.18, 353.115, 351.05, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 272.58, 268.45, 264.32, 260.19, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 239.54, 235.41, 231.28, 229.215, 227.15, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 175.525, 173.46, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 138.355, 136.29, 134.225, 134.225, 132.16, 130.095, 130.095, 128.03, 125.965, 125.965, 125.965, 125.965, 123.89999999999999, 121.835, 121.835, 121.835, 121.835, 121.835, 121.835, 119.77, 117.705, 117.705, 117.705, 117.705, 117.705, 117.705, 117.705, 119.77]</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
         <v>0.0006816632583503749</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>375.9180163934426</v>
+        <v>-218.2382558139535</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>154.6718852459017</v>
+        <v>238.8127906976744</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>[386.155, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 382.025, 384.09, 386.155]</t>
+          <t>[-192.045, -189.98, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -192.045]</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>[307.68500000000006, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55500000000006, 301.49, 301.49, 301.49, 299.42500000000007, 297.36, 297.36, 297.36, 295.2950000000001, 293.23, 293.23, 291.1650000000001, 289.1, 289.1, 287.0350000000001, 284.97, 284.97, 282.9050000000001, 280.84000000000003, 278.7750000000001, 276.71000000000004, 274.645, 272.58000000000004, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.19000000000005, 258.125, 253.995, 251.93000000000006, 249.865, 247.80000000000007, 245.735, 243.67000000000007, 241.60500000000002, 237.47500000000002, 235.41000000000008, 233.34500000000003, 229.21500000000003, 227.1500000000001, 225.08500000000004, 220.95500000000004, 218.89, 216.82500000000005, 212.69500000000005, 210.63, 208.56500000000005, 204.43500000000006, 200.30500000000006, 196.17500000000007, 194.11, 192.04500000000007, 187.91500000000008, 183.78500000000008, 179.6550000000001, 175.5250000000001, 171.3950000000001, 169.33000000000004, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 144.55000000000007, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83500000000004, 119.7700000000001, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18500000000006, 97.05500000000006, 94.99000000000001, 92.92500000000007, 88.79500000000007, 86.73000000000002, 84.66500000000008, 80.53500000000008, 78.47000000000003, 76.40500000000009, 74.34000000000003, 72.27500000000009, 68.1450000000001, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 39.235000000000014, 37.17000000000007, 35.10500000000002, 33.04000000000008, 30.975000000000023, 28.910000000000082, 28.910000000000082, 26.845000000000027, 24.780000000000086, 22.715000000000032, 20.65000000000009, 20.65000000000009, 18.585000000000036, 16.520000000000095, 16.520000000000095, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.520000000000095, 16.520000000000095, 18.585000000000036, 20.65000000000009, 22.715000000000032, 24.780000000000086, 24.780000000000086, 26.845000000000027, 28.910000000000082, 30.975000000000023, 33.04000000000008, 33.04000000000008, 35.10500000000002, 37.17000000000007, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 47.495000000000005, 49.56000000000006, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 64.01499999999999, 66.08000000000004, 68.1450000000001, 70.21000000000004, 72.27500000000009, 76.40500000000009, 78.47000000000003, 80.53500000000008, 84.66500000000008, 86.73000000000002, 88.79500000000007, 92.92500000000007, 94.99000000000001, 97.05500000000006, 101.18500000000006, 105.31500000000005, 107.38, 109.44500000000005, 113.57500000000005, 117.70500000000004, 121.83500000000004, 123.90000000000009, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.3950000000001, 173.46000000000004, 175.5250000000001, 179.6550000000001, 183.78500000000008, 187.91500000000008, 189.98000000000002, 192.04500000000007, 196.17500000000007, 200.30500000000006, 202.37, 204.43500000000006, 208.56500000000005, 210.63, 212.69500000000005, 216.82500000000005, 218.89, 220.95500000000004, 225.08500000000004, 227.1500000000001, 229.21500000000003, 233.34500000000003, 235.41000000000008, 237.47500000000002, 239.54000000000008, 241.60500000000002, 243.67000000000007, 245.735, 249.865, 251.93000000000006, 253.995, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 264.32000000000005, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.7750000000001, 280.84000000000003, 280.84000000000003, 282.9050000000001, 284.97, 284.97, 287.0350000000001, 289.1, 289.1, 291.1650000000001, 293.23, 293.23, 295.2950000000001, 297.36, 297.36, 297.36, 299.42500000000007, 301.49, 301.49, 301.49, 303.55500000000006, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 307.68500000000006, 309.75, 307.68500000000006]</t>
+          <t>[90.86, 92.925, 92.925, 92.925, 92.925, 92.925, 94.99, 97.05499999999999, 97.05499999999999, 99.12, 101.185, 101.185, 101.185, 103.25, 105.315, 105.315, 107.38, 109.445, 109.445, 111.50999999999999, 113.575, 115.64, 117.705, 119.77, 121.835, 121.835, 123.89999999999999, 125.965, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 152.81, 154.875, 156.94, 159.005, 161.07, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 202.37, 204.435, 206.5, 210.63, 214.76, 218.89, 223.01999999999998, 225.085, 227.15, 231.28, 235.41, 239.54, 243.67, 247.79999999999998, 251.93, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 348.985, 348.985, 351.05, 353.115, 355.18, 357.245, 359.31, 361.375, 363.44, 365.505, 365.505, 367.57, 369.635, 369.635, 371.7, 373.765, 373.765, 375.83, 377.895, 377.895, 379.96, 382.025, 382.025, 382.025, 384.09, 386.155, 386.155, 386.155, 386.155, 388.21999999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 388.21999999999997, 386.155, 386.155, 386.155, 386.155, 384.09, 382.025, 382.025, 382.025, 379.96, 377.895, 377.895, 377.895, 375.83, 373.765, 373.765, 371.7, 369.635, 369.635, 367.57, 365.505, 365.505, 363.44, 361.375, 359.31, 357.245, 355.18, 353.115, 353.115, 351.05, 348.985, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 268.45, 264.32, 260.19, 256.06, 253.995, 251.93, 247.79999999999998, 243.67, 239.54, 235.41, 231.28, 227.15, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 206.5, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 138.355, 136.29, 134.225, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 121.835, 121.835, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 109.445, 109.445, 107.38, 105.315, 105.315, 103.25, 101.185, 101.185, 101.185, 99.12, 97.05499999999999, 97.05499999999999, 97.05499999999999, 94.99, 92.925, 92.925, 92.925, 92.925, 90.86, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 90.86]</t>
         </is>
       </c>
     </row>
@@ -929,22 +929,22 @@
         <v>0.0007303534910896875</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>375.8232295081967</v>
+        <v>-218.2834488448845</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>155.4301803278689</v>
+        <v>207.6858415841584</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-200.305, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -204.435, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -237.475, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -200.305]</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.27999999999997, 229.21500000000003, 225.08500000000004, 220.95500000000004, 218.89, 216.82500000000005, 212.69500000000005, 210.63, 208.56500000000005, 204.43500000000006, 200.30499999999995, 196.17499999999995, 194.11, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.20000000000005, 163.135, 159.005, 154.875, 152.81000000000006, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.89999999999998, 121.83500000000004, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18500000000006, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.34000000000003, 72.27499999999998, 70.21000000000004, 68.14499999999998, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.56000000000006, 51.625, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 66.08000000000004, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 78.47000000000003, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 94.99000000000001, 97.05499999999995, 101.18500000000006, 105.31500000000005, 107.38, 109.44500000000005, 113.57500000000005, 117.70500000000004, 121.83500000000004, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.59000000000003, 179.65499999999997, 183.78499999999997, 187.91499999999996, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 204.43500000000006, 206.5, 208.56500000000005, 212.69500000000005, 214.76, 216.82500000000005, 220.95500000000004, 223.01999999999998, 225.08500000000004, 229.21500000000003, 231.27999999999997, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[57.82, 59.885, 59.885, 59.885, 59.885, 59.885, 61.949999999999996, 64.015, 64.015, 64.015, 66.08, 68.145, 68.145, 68.145, 70.21, 72.27499999999999, 72.27499999999999, 74.34, 76.405, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 84.66499999999999, 86.73, 88.795, 90.86, 92.925, 94.99, 97.05499999999999, 97.05499999999999, 99.12, 101.185, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 117.705, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 206.5, 210.63, 214.76, 218.89, 223.01999999999998, 227.15, 231.28, 233.345, 235.41, 239.54, 243.67, 247.79999999999998, 251.93, 253.995, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 338.65999999999997, 340.72499999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 346.92, 348.985, 348.985, 351.05, 353.115, 353.115, 353.115, 353.115, 355.18, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 359.31, 361.375, 361.375, 359.31, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 355.18, 353.115, 353.115, 353.115, 351.05, 348.985, 348.985, 348.985, 346.92, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 214.76, 210.63, 206.5, 202.37, 198.24, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 134.225, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 107.38, 105.315, 103.25, 101.185, 99.12, 97.05499999999999, 97.05499999999999, 94.99, 92.925, 90.86, 88.795, 86.73, 84.66499999999999, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 76.405, 74.34, 72.27499999999999, 72.27499999999999, 70.21, 68.145, 68.145, 68.145, 66.08, 64.015, 64.015, 64.015, 61.949999999999996, 59.885, 59.885, 59.885, 59.885, 59.885, 59.885, 57.82, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 57.82]</t>
         </is>
       </c>
     </row>
@@ -958,22 +958,22 @@
         <v>0.0007790437238289999</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>374.7327557755775</v>
+        <v>-218.595</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>155.9381683168317</v>
+        <v>176.7393023255814</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-187.915, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -256.06, -253.995, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -187.915]</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.905, 280.8399999999999, 278.775, 276.7099999999999, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 245.735, 243.66999999999996, 241.60500000000002, 239.53999999999996, 237.47500000000002, 233.3449999999999, 231.27999999999997, 229.21499999999992, 225.08499999999992, 223.01999999999998, 220.95499999999993, 216.82499999999993, 212.69499999999994, 210.63, 208.56499999999994, 204.43499999999995, 200.30499999999995, 196.17499999999995, 194.11, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.0949999999999, 128.02999999999997, 125.96499999999992, 121.83499999999992, 117.70499999999993, 113.57499999999993, 111.50999999999999, 109.44499999999994, 105.31499999999994, 101.18499999999995, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 78.46999999999991, 76.40499999999997, 72.27499999999998, 70.20999999999992, 68.14499999999998, 66.07999999999993, 64.01499999999999, 61.94999999999993, 59.88499999999999, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 26.845000000000027, 28.909999999999968, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 66.07999999999993, 68.14499999999998, 72.27499999999998, 74.33999999999992, 76.40499999999997, 78.46999999999991, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31499999999994, 107.38, 109.44499999999994, 113.57499999999993, 117.70499999999993, 121.83499999999992, 123.89999999999998, 125.96499999999992, 130.0949999999999, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999992, 179.65499999999997, 183.78499999999997, 187.91499999999996, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 204.43499999999995, 206.5, 208.56499999999994, 212.69499999999994, 214.76, 216.82499999999993, 220.95499999999993, 223.01999999999998, 225.08499999999992, 229.21499999999992, 231.27999999999997, 233.3449999999999, 235.40999999999997, 237.47500000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.44999999999993, 270.515, 272.5799999999999, 274.645, 276.7099999999999, 278.775, 280.8399999999999, 280.8399999999999, 282.905, 284.9699999999999, 287.03499999999997, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[28.91, 30.974999999999998, 30.974999999999998, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 39.235, 39.235, 41.3, 43.365, 43.365, 45.43, 47.495, 49.56, 51.625, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 97.05499999999999, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 181.72, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 206.5, 210.63, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 231.28, 233.345, 235.41, 239.54, 241.605, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 258.125, 260.19, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 299.425, 301.49, 303.555, 305.62, 307.685, 307.685, 309.75, 311.815, 311.815, 313.88, 315.945, 315.945, 318.01, 320.075, 320.075, 320.075, 322.14, 324.205, 324.205, 324.205, 324.205, 324.205, 326.27, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 326.27, 324.205, 324.205, 324.205, 324.205, 324.205, 322.14, 320.075, 320.075, 320.075, 318.01, 315.945, 315.945, 313.88, 311.815, 311.815, 309.75, 307.685, 307.685, 305.62, 303.555, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 214.76, 212.695, 210.63, 206.5, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 35.105, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 28.91]</t>
         </is>
       </c>
     </row>
@@ -987,22 +987,22 @@
         <v>0.0008277339565683124</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>375.5304352030947</v>
+        <v>-218.7145945945946</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>293.9928916827853</v>
+        <v>167.8709459459459</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>517</v>
+        <v>259</v>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 456.365, 454.3, 452.235, 452.235, 452.235, 454.3, 456.365, 458.43, 460.495, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-142.48499999999999, -142.48499999999999, -140.42, -138.355, -136.29, -134.225, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -299.425, -301.49]</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>[588.525, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 584.395, 582.3299999999999, 582.3299999999999, 582.3299999999999, 580.265, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.0949999999999, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 489.405, 487.3399999999999, 485.275, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 460.495, 456.365, 452.235, 448.105, 443.975, 439.8449999999999, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.4649999999999, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.8399999999999, 278.775, 276.7099999999999, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.32000000000005, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 256.05999999999995, 253.99499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 229.215, 227.15, 225.085, 223.02, 220.955, 216.82500000000002, 214.76000000000002, 212.69500000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30499999999998, 196.17499999999998, 194.10999999999999, 192.045, 187.915, 183.785, 181.72, 179.655, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 156.94000000000003, 154.87500000000003, 150.74500000000003, 146.61499999999998, 142.48499999999999, 138.355, 134.225, 132.16, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 109.44500000000002, 107.38000000000002, 105.31500000000003, 101.18500000000003, 97.05499999999998, 94.98999999999998, 92.92499999999998, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36499999999998, 41.29999999999998, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.29999999999998, 43.36499999999998, 45.430000000000035, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 70.21000000000001, 72.275, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05499999999998, 101.18500000000003, 103.25000000000003, 105.31500000000003, 109.44500000000002, 111.51000000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 128.03, 130.095, 134.225, 138.355, 142.48499999999999, 146.61499999999998, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30499999999998, 204.43500000000003, 206.50000000000003, 208.56500000000003, 212.69500000000002, 214.76000000000002, 216.82500000000002, 220.955, 223.02, 225.085, 229.215, 231.28, 233.345, 235.41, 237.475, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99499999999998, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 264.32000000000005, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 274.645, 276.7099999999999, 278.775, 280.8399999999999, 282.905, 284.97, 287.03499999999997, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.4649999999999, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.8449999999999, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.4699999999999, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.0949999999999, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 580.265, 582.3299999999999, 582.3299999999999, 582.3299999999999, 582.3299999999999, 584.395, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 588.525, 590.5899999999999, 590.5899999999999, 590.5899999999999, 590.5899999999999, 590.5899999999999, 590.5899999999999, 588.525]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 177.59, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 293.23, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 293.23, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
         <v>0.0008764241893076249</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>376.4902380952381</v>
+        <v>-218.3690990990991</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>264.0999206349206</v>
+        <v>161.7583333333334</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>441</v>
+        <v>222</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-90.86, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -68.145, -68.145, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -379.96, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115]</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>[526.575, 524.51, 524.51, 524.51, 524.51, 522.445, 520.38, 520.38, 520.38, 518.315, 516.25, 516.25, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.69000000000005, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19500000000005, 415.06500000000005, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 367.57000000000005, 365.505, 361.375, 357.245, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 328.33500000000004, 324.20500000000004, 320.07500000000005, 315.94500000000005, 311.81500000000005, 309.75, 307.68500000000006, 303.55499999999995, 299.42499999999995, 295.29499999999996, 291.16499999999996, 289.1, 287.03499999999997, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 264.32000000000005, 262.255, 258.125, 256.06000000000006, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 229.21500000000003, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 208.565, 204.435, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65500000000003, 175.52500000000003, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.90000000000003, 121.83500000000004, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27500000000003, 70.21000000000004, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.585000000000036, 16.52000000000004, 16.52000000000004, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.52000000000004, 16.52000000000004, 18.585000000000036, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.21000000000004, 72.27500000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83500000000004, 123.90000000000003, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52500000000003, 179.65500000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 204.435, 208.565, 212.695, 216.825, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21500000000003, 233.34500000000003, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 249.865, 251.92999999999995, 253.995, 256.06000000000006, 258.125, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 282.905, 284.97, 287.03499999999997, 291.16499999999996, 295.29499999999996, 297.36, 299.42499999999995, 303.55499999999995, 307.68500000000006, 311.81500000000005, 315.94500000000005, 320.07500000000005, 324.20500000000004, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 344.855, 348.985, 353.115, 357.245, 361.375, 365.505, 369.635, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 413.0, 415.06500000000005, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 450.16999999999996, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 466.69000000000005, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.315, 520.38, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 526.575]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 28.91, 30.974999999999998, 33.04, 37.17, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 49.56, 45.43, 41.3, 39.235, 37.17, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1045,22 +1045,22 @@
         <v>0.0009251144220469374</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>375.0185764705883</v>
+        <v>-219.6692452830189</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>235.4148588235294</v>
+        <v>144.7253301886792</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -379.96, -382.025, -384.09, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -396.48, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -396.48, -394.41499999999996, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -384.09, -382.025, -379.96, -377.895, -375.83, -373.765, -373.765]</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>[468.75499999999994, 466.69, 466.69, 466.69, 466.69, 466.69, 464.62499999999994, 462.56, 462.56, 462.56, 460.49499999999995, 458.43, 458.43, 458.43, 456.36499999999995, 454.3, 454.3, 452.23499999999996, 450.17, 448.10499999999996, 446.04, 446.04, 443.97499999999997, 441.91, 441.91, 439.84499999999997, 437.78000000000003, 435.715, 433.6499999999999, 431.585, 429.5199999999999, 427.455, 425.38999999999993, 423.325, 421.25999999999993, 419.195, 417.12999999999994, 415.065, 410.935, 408.86999999999995, 406.805, 404.73999999999995, 402.675, 398.545, 396.47999999999996, 394.415, 390.285, 388.21999999999997, 386.15500000000003, 382.0249999999999, 377.8949999999999, 375.83, 373.76499999999993, 369.63499999999993, 367.57, 365.50499999999994, 361.37499999999994, 357.24499999999995, 355.18, 353.11499999999995, 348.98499999999996, 346.92, 344.85499999999996, 340.72499999999997, 338.66, 336.59499999999997, 332.465, 330.3999999999999, 328.335, 326.2699999999999, 324.205, 320.075, 315.945, 311.815, 309.74999999999994, 307.685, 303.555, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 278.77500000000003, 274.6449999999999, 272.58, 270.51499999999993, 266.38499999999993, 262.25499999999994, 260.19, 258.12499999999994, 253.99499999999995, 251.93, 249.86499999999995, 247.8, 245.73499999999996, 243.67000000000002, 241.60499999999996, 239.54000000000002, 237.47499999999997, 233.34499999999997, 229.21499999999997, 227.15000000000003, 225.08499999999998, 223.01999999999992, 220.95499999999998, 218.88999999999993, 216.825, 212.695, 210.62999999999994, 208.565, 206.5, 204.435, 200.305, 196.17499999999995, 194.10999999999996, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 152.81, 150.745, 146.615, 142.48499999999996, 140.41999999999996, 138.35499999999996, 134.22499999999997, 132.15999999999997, 130.09499999999997, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.85999999999996, 88.79499999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.23499999999996, 37.16999999999996, 37.16999999999996, 35.10499999999996, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10499999999996, 37.16999999999996, 39.23499999999996, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79499999999996, 90.85999999999996, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 128.02999999999997, 130.09499999999997, 134.22499999999997, 136.28999999999996, 138.35499999999996, 142.48499999999996, 144.54999999999995, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 192.04499999999996, 196.17499999999995, 198.23999999999995, 200.305, 204.435, 206.5, 208.565, 210.62999999999994, 212.695, 216.825, 218.88999999999993, 220.95499999999998, 223.01999999999992, 225.08499999999998, 227.15000000000003, 229.21499999999997, 233.34499999999997, 237.47499999999997, 239.54000000000002, 241.60499999999996, 243.67000000000002, 245.73499999999996, 247.8, 249.86499999999995, 251.93, 253.99499999999995, 256.06, 258.12499999999994, 262.25499999999994, 266.38499999999993, 268.45, 270.51499999999993, 274.6449999999999, 278.77500000000003, 282.90500000000003, 287.035, 291.165, 295.295, 299.425, 303.555, 307.685, 309.74999999999994, 311.815, 315.945, 320.075, 322.13999999999993, 324.205, 328.335, 330.3999999999999, 332.465, 336.59499999999997, 338.66, 340.72499999999997, 344.85499999999996, 346.92, 348.98499999999996, 351.05, 353.11499999999995, 357.24499999999995, 359.31, 361.37499999999994, 365.50499999999994, 367.57, 369.63499999999993, 373.76499999999993, 375.83, 377.8949999999999, 382.0249999999999, 384.09, 386.15500000000003, 390.285, 392.34999999999997, 394.415, 398.545, 400.60999999999996, 402.675, 404.73999999999995, 406.805, 410.935, 412.99999999999994, 415.065, 417.12999999999994, 419.195, 421.25999999999993, 423.325, 425.38999999999993, 427.455, 429.5199999999999, 431.585, 433.6499999999999, 433.6499999999999, 435.715, 437.78000000000003, 439.84499999999997, 441.91, 441.91, 443.97499999999997, 446.04, 446.04, 448.10499999999996, 450.17, 450.17, 452.23499999999996, 454.3, 454.3, 456.36499999999995, 458.43, 458.43, 460.49499999999995, 462.56, 462.56, 462.56, 464.62499999999994, 466.69, 466.69, 466.69, 466.69, 466.69, 468.75499999999994, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 468.75499999999994]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 179.655, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 154.875, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 138.355, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 113.575, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 49.56, 45.43, 41.3, 39.235, 37.17, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1074,22 +1074,22 @@
         <v>0.0009738046547862498</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>374.7112529832936</v>
+        <v>-220.0896666666667</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>213.5623985680191</v>
+        <v>131.1963333333333</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>419</v>
+        <v>210</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 237.475, 235.41, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -200.305, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -351.05, -353.115, -355.18, -357.245, -359.31, -363.44, -365.505, -367.57, -369.635, -371.7, -375.83, -377.895, -379.96, -382.025, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -396.48, -398.545, -398.545, -400.61, -402.675, -402.675, -404.74, -406.805, -406.805, -408.87, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -408.87, -406.805, -406.805, -404.74, -402.675, -402.675, -400.61, -398.545, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -384.09, -382.025, -382.025]</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>[423.325, 421.26000000000005, 421.26000000000005, 421.26000000000005, 421.26000000000005, 419.195, 417.13000000000005, 417.13000000000005, 417.13000000000005, 415.065, 412.99999999999994, 412.99999999999994, 410.935, 408.86999999999995, 408.86999999999995, 406.805, 404.73999999999995, 404.73999999999995, 402.675, 400.60999999999996, 398.545, 396.47999999999996, 396.47999999999996, 394.415, 392.34999999999997, 390.285, 388.21999999999997, 386.15500000000003, 384.09, 382.02500000000003, 379.96, 377.89500000000004, 375.83, 375.83, 373.76500000000004, 371.7, 369.63500000000005, 367.57, 365.50500000000005, 363.44, 361.37499999999994, 359.31, 357.24499999999995, 355.18, 355.18, 353.11499999999995, 351.05, 348.98499999999996, 346.92, 344.85499999999996, 342.79, 340.72499999999997, 338.66, 338.66, 336.59499999999997, 334.53000000000003, 332.465, 328.335, 326.27000000000004, 324.205, 322.14000000000004, 320.075, 318.01000000000005, 315.945, 313.88000000000005, 311.815, 309.74999999999994, 307.685, 303.555, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 278.77500000000003, 274.64500000000004, 270.51500000000004, 266.38500000000005, 262.25500000000005, 258.12500000000006, 253.99499999999995, 251.93, 249.86499999999995, 245.73499999999996, 243.67000000000002, 241.60499999999996, 237.47499999999997, 235.41000000000003, 233.34499999999997, 231.28000000000003, 229.21499999999997, 227.15000000000003, 225.08499999999998, 223.02000000000004, 220.95499999999998, 218.89000000000004, 216.825, 212.695, 208.565, 206.50000000000006, 204.435, 202.36999999999995, 200.305, 198.23999999999995, 196.175, 194.10999999999996, 192.04500000000002, 189.97999999999996, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.89999999999998, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 107.38, 105.315, 103.25, 101.185, 99.12, 97.055, 94.99000000000001, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27500000000003, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27500000000003, 74.34000000000003, 74.34000000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 82.60000000000002, 82.60000000000002, 84.66500000000002, 86.73000000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 94.99000000000001, 97.055, 99.12, 101.185, 103.25, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96500000000003, 128.03000000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.10999999999996, 196.175, 198.23999999999995, 200.305, 202.36999999999995, 204.435, 206.50000000000006, 208.565, 212.695, 216.825, 218.89000000000004, 220.95499999999998, 223.02000000000004, 225.08499999999998, 227.15000000000003, 229.21499999999997, 231.28000000000003, 233.34499999999997, 235.41000000000003, 237.47499999999997, 241.60499999999996, 243.67000000000002, 245.73499999999996, 249.86499999999995, 253.99499999999995, 256.06, 258.12500000000006, 262.25500000000005, 266.38500000000005, 270.51500000000004, 274.64500000000004, 278.77500000000003, 282.90500000000003, 287.035, 291.165, 293.22999999999996, 295.295, 299.425, 303.555, 305.61999999999995, 307.685, 311.815, 313.88000000000005, 315.945, 320.075, 322.14000000000004, 324.205, 326.27000000000004, 328.335, 330.40000000000003, 332.465, 334.53000000000003, 336.59499999999997, 338.66, 340.72499999999997, 342.79, 344.85499999999996, 346.92, 346.92, 348.98499999999996, 351.05, 353.11499999999995, 355.18, 355.18, 357.24499999999995, 359.31, 361.37499999999994, 363.44, 363.44, 365.50500000000005, 367.57, 369.63500000000005, 371.7, 373.76500000000004, 375.83, 377.89500000000004, 379.96, 379.96, 382.02500000000003, 384.09, 386.15500000000003, 388.21999999999997, 390.285, 392.34999999999997, 392.34999999999997, 394.415, 396.47999999999996, 398.545, 400.60999999999996, 400.60999999999996, 402.675, 404.73999999999995, 406.805, 408.86999999999995, 408.86999999999995, 410.935, 412.99999999999994, 412.99999999999994, 412.99999999999994, 415.065, 417.13000000000005, 417.13000000000005, 419.195, 421.26000000000005, 421.26000000000005, 421.26000000000005, 423.325, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 423.325]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 109.445, 111.50999999999999, 113.575, 115.64, 117.705, 119.77, 121.835, 123.89999999999999, 125.965, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 154.875, 156.94, 159.005, 161.07, 163.135, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 175.525, 177.59, 179.655, 179.655, 181.72, 183.785, 185.85, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 175.525, 173.46, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 136.29, 134.225, 134.225, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 121.835, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 33.04, 30.974999999999998, 28.91, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
         <v>0.001022494887525562</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>375.6345907928389</v>
+        <v>-219.3559487179486</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>178.0494757033248</v>
+        <v>117.5779230769231</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>391</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 487.34, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 565.81, 567.875, 569.9399999999999, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 516.25, 512.12, 510.055, 507.99, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 280.84, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 235.41, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 208.565, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 235.41, 237.475, 239.54, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 264.32, 268.45, 272.58, 274.645, 276.71, 280.84, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-53.69, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -61.949999999999996, -64.015, -66.08, -70.21, -72.27499999999999, -74.34, -78.47, -82.6, -84.66499999999999, -86.73, -90.86, -94.99, -97.05499999999999, -99.12, -103.25, -107.38, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -260.19, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -313.88, -318.01, -322.14, -326.27, -330.4, -332.465, -334.53, -338.65999999999997, -342.78999999999996, -346.92, -348.985, -351.05, -355.18, -359.31, -361.375, -363.44, -367.57, -369.635, -371.7, -375.83, -377.895, -379.96, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -396.48, -398.545, -400.61, -402.675, -402.675, -404.74, -406.805, -406.805, -408.87, -410.935, -410.935, -410.935, -410.935, -413.0, -415.065, -415.065, -415.065, -415.065, -415.065, -415.065, -415.065, -413.0, -410.935, -410.935, -410.935, -408.87, -406.805, -406.805, -404.74, -402.675, -402.675, -400.61, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -386.155]</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>[353.115, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 348.985, 346.91999999999996, 346.91999999999996, 346.91999999999996, 344.855, 342.78999999999996, 342.78999999999996, 340.725, 338.65999999999997, 338.65999999999997, 338.65999999999997, 336.595, 334.53, 334.53, 332.46500000000003, 330.4, 330.4, 330.4, 330.4, 330.4, 328.33500000000004, 326.27, 326.27, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 262.255, 258.125, 253.995, 249.865, 245.735, 241.60500000000002, 237.47500000000002, 233.34500000000003, 229.21500000000003, 225.08500000000004, 220.95500000000004, 218.89, 216.82499999999993, 212.69499999999994, 208.56499999999994, 206.5, 204.43499999999995, 200.30499999999995, 198.24, 196.17499999999995, 194.11, 192.04499999999996, 189.98000000000002, 187.91499999999996, 185.85000000000002, 183.78499999999997, 179.65499999999997, 177.59000000000003, 175.52499999999998, 173.46000000000004, 171.39499999999998, 167.265, 165.19999999999993, 163.135, 161.06999999999994, 159.005, 156.93999999999994, 154.875, 152.80999999999995, 150.745, 146.615, 144.55, 142.485, 138.35499999999996, 134.22499999999997, 132.15999999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 101.185, 97.055, 92.92500000000001, 88.79500000000002, 84.66499999999996, 82.59999999999997, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.039999999999964, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 24.779999999999973, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 136.28999999999996, 138.35499999999996, 142.485, 144.55, 146.615, 150.745, 152.80999999999995, 154.875, 156.93999999999994, 159.005, 161.06999999999994, 163.135, 165.19999999999993, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.72000000000003, 183.78499999999997, 185.85000000000002, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 198.24, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 212.69499999999994, 214.76, 216.82499999999993, 220.95500000000004, 225.08500000000004, 229.21500000000003, 231.27999999999997, 233.34500000000003, 237.47500000000002, 241.60500000000002, 245.735, 249.865, 253.995, 256.05999999999995, 258.125, 262.255, 266.385, 270.515, 272.5799999999999, 274.645, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 326.27, 326.27, 328.33500000000004, 330.4, 330.4, 330.4, 330.4, 330.4, 330.4, 332.46500000000003, 334.53, 334.53, 334.53, 334.53, 336.595, 338.65999999999997, 338.65999999999997, 338.65999999999997, 340.725, 342.78999999999996, 342.78999999999996, 344.855, 346.91999999999996, 346.91999999999996, 346.91999999999996, 348.985, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 353.115, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 353.115]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 125.965, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 138.355, 140.42, 142.48499999999999, 142.48499999999999, 144.54999999999998, 146.615, 146.615, 146.615, 148.68, 150.745, 150.745, 150.745, 152.81, 154.875, 154.875, 154.875, 154.875, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 175.525, 175.525, 175.525, 175.525, 177.59, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 177.59, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 159.005, 159.005, 159.005, 159.005, 159.005, 159.005, 156.94, 154.875, 154.875, 154.875, 154.875, 152.81, 150.745, 150.745, 150.745, 148.68, 146.615, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 138.355, 136.29, 134.225, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 117.705, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 49.56, 45.43, 43.365, 41.3, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1132,22 +1132,22 @@
         <v>0.001071185120264875</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>375.0399604221636</v>
+        <v>-220.8576963350785</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>168.1149736147757</v>
+        <v>116.8184554973822</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>[485.275, 487.34, 491.46999999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 561.68, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 491.46999999999997, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 462.56, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 326.27, 322.14, 318.01, 313.88, 309.75, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 280.84, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 235.41, 237.475, 239.54, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 276.71, 280.84, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 301.49, 305.62, 309.75, 313.88, 318.01, 322.14, 326.27, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 462.56, 466.69, 470.82, 474.95, 479.08, 483.21, 485.275]</t>
+          <t>[-55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -86.73, -90.86, -92.925, -94.99, -99.12, -103.25, -107.38, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -128.03, -132.16, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -260.19, -264.32, -268.45, -272.58, -276.71, -280.84, -284.96999999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -305.62, -309.75, -313.88, -318.01, -322.14, -326.27, -330.4, -332.465, -334.53, -338.65999999999997, -342.78999999999996, -346.92, -348.985, -351.05, -355.18, -359.31, -361.375, -363.44, -365.505, -367.57, -371.7, -373.765, -375.83, -377.895, -379.96, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -396.48, -398.545, -400.61, -402.675, -402.675, -404.74, -406.805, -406.805, -406.805, -408.87, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -408.87, -406.805, -406.805, -406.805, -404.74, -402.675, -400.61, -398.545, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -384.09, -382.025, -379.96, -377.895, -377.895, -379.96]</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>[332.46500000000003, 330.4, 330.4, 330.4, 330.4, 328.33500000000004, 326.27, 326.27, 324.20500000000004, 322.14, 322.14, 320.07500000000005, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 258.125, 253.995, 249.865, 245.735, 241.60500000000002, 237.47500000000002, 233.34500000000003, 229.21500000000003, 225.08500000000004, 220.95500000000004, 218.89, 216.82500000000005, 212.69500000000005, 208.56499999999994, 206.5, 204.43499999999995, 200.30499999999995, 196.17499999999995, 194.11, 192.04499999999996, 189.98000000000002, 187.91499999999996, 183.78499999999997, 181.72000000000003, 179.65499999999997, 177.59000000000003, 175.52499999999998, 173.46000000000004, 171.39499999999998, 167.265, 163.135, 161.07000000000005, 159.005, 156.93999999999994, 154.875, 150.745, 148.67999999999995, 146.615, 144.54999999999995, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 132.15999999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 101.185, 97.055, 92.92500000000001, 88.79500000000002, 84.66500000000002, 80.53500000000003, 78.46999999999997, 76.40499999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 51.625, 49.56, 47.495000000000005, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.779999999999973, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 80.53500000000003, 84.66500000000002, 88.79500000000002, 92.92500000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 132.15999999999997, 134.22500000000002, 136.29000000000002, 138.35500000000002, 142.485, 144.54999999999995, 146.615, 148.67999999999995, 150.745, 152.80999999999995, 154.875, 156.93999999999994, 159.005, 161.07000000000005, 163.135, 167.265, 169.33000000000004, 171.39499999999998, 173.46000000000004, 175.52499999999998, 177.59000000000003, 179.65499999999997, 181.72000000000003, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 212.69500000000005, 214.76, 216.82500000000005, 220.95500000000004, 225.08500000000004, 229.21500000000003, 233.34500000000003, 237.47500000000002, 241.60500000000002, 245.735, 249.865, 253.995, 258.125, 260.18999999999994, 262.255, 266.385, 270.515, 272.58000000000004, 274.645, 278.775, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07500000000005, 322.14, 322.14, 324.20500000000004, 326.27, 326.27, 326.27, 328.33500000000004, 330.4, 330.4, 330.4, 330.4, 332.46500000000003, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 332.46500000000003]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 45.43, 49.56, 51.625, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 140.42, 142.48499999999999, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 154.875, 156.94, 159.005, 159.005, 159.005, 161.07, 163.135, 163.135, 163.135, 163.135, 163.135, 163.135, 165.2, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 165.2, 163.135, 163.135, 163.135, 163.135, 161.07, 159.005, 159.005, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 136.29, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 121.835, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 51.625, 49.56, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
         <v>0.001119875353004187</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>376.8807974683544</v>
+        <v>-219.0577157360406</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>185.0605949367088</v>
+        <v>124.2459137055838</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 565.81, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 458.43, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 318.01, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 293.23, 289.09999999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 251.93, 253.995, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 301.49, 305.62, 309.75, 313.88, 318.01, 322.14, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-64.015, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -136.29, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -276.71, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -301.49, -305.62, -309.75, -313.88, -315.945, -318.01, -322.14, -326.27, -330.4, -332.465, -334.53, -338.65999999999997, -342.78999999999996, -344.855, -346.92, -351.05, -353.115, -355.18, -359.31, -361.375, -363.44, -365.505, -367.57, -369.635, -371.7, -375.83, -377.895, -379.96, -382.025, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -396.48, -398.545, -398.545, -398.545, -400.61, -402.675, -402.675, -402.675, -404.74, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -404.74, -402.675, -402.675, -402.675, -400.61, -398.545, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -384.09, -382.025, -379.96, -377.895, -375.83, -373.765, -373.765, -373.765]</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>[365.505, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 361.375, 359.30999999999995, 359.30999999999995, 359.30999999999995, 357.245, 355.17999999999995, 355.17999999999995, 355.17999999999995, 353.115, 351.04999999999995, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 334.53, 332.4649999999999, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 278.775, 274.645, 272.5799999999999, 270.515, 266.385, 262.255, 258.125, 253.995, 249.865, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 233.34500000000003, 229.21500000000003, 227.14999999999998, 225.08499999999992, 220.95499999999993, 218.89, 216.82499999999993, 212.69499999999994, 210.63, 208.56499999999994, 206.5, 204.43499999999995, 200.30499999999995, 198.24, 196.17499999999995, 194.11, 192.04499999999996, 189.98000000000002, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.59000000000003, 175.52499999999998, 173.45999999999992, 171.39499999999998, 167.265, 165.19999999999993, 163.135, 161.06999999999994, 159.005, 156.94, 154.875, 150.745, 148.67999999999995, 146.61499999999995, 142.48499999999996, 140.41999999999996, 138.35499999999996, 134.22499999999997, 130.09499999999997, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 101.185, 97.055, 92.92499999999995, 88.79499999999996, 86.72999999999996, 84.66499999999996, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.299999999999955, 39.23499999999996, 37.16999999999996, 35.10499999999996, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.16999999999996, 37.16999999999996, 39.23499999999996, 41.299999999999955, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 92.92499999999995, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 128.02999999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 140.41999999999996, 142.48499999999996, 146.61499999999995, 148.67999999999995, 150.745, 152.81, 154.875, 159.005, 161.06999999999994, 163.135, 165.19999999999993, 167.265, 169.32999999999993, 171.39499999999998, 173.45999999999992, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 206.5, 208.56499999999994, 210.63, 212.69499999999994, 216.82499999999993, 218.89, 220.95499999999993, 225.08499999999992, 227.14999999999998, 229.21500000000003, 233.34500000000003, 237.47500000000002, 239.53999999999996, 241.60500000000002, 245.735, 249.865, 253.995, 258.125, 262.255, 266.385, 270.515, 274.645, 278.775, 280.8399999999999, 282.905, 287.03499999999997, 291.16499999999996, 293.23, 295.29499999999996, 299.42499999999995, 301.49, 303.55499999999995, 307.68499999999995, 309.75, 311.81499999999994, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.4649999999999, 334.53, 336.595, 338.65999999999997, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 346.91999999999996, 348.985, 351.04999999999995, 351.04999999999995, 353.115, 355.17999999999995, 355.17999999999995, 355.17999999999995, 357.245, 359.30999999999995, 359.30999999999995, 359.30999999999995, 359.30999999999995, 361.375, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 365.505, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 365.505]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 175.525, 175.525, 175.525, 177.59, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 177.59, 175.525, 175.525, 175.525, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 140.42, 138.355, 136.29, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
         <v>0.0011685655857435</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>376.2156619385342</v>
+        <v>-220.0056872037915</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>215.0773167848699</v>
+        <v>133.6182227488152</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>423</v>
+        <v>211</v>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>[386.155, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 427.455, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 272.58, 270.515, 268.45, 264.32, 260.19, 258.125, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 237.475, 235.41, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 258.125, 260.19, 264.32, 268.45, 270.515, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 386.155]</t>
+          <t>[-68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -196.17499999999998, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -309.75, -311.815, -313.88, -318.01, -322.14, -324.205, -326.27, -330.4, -334.53, -336.59499999999997, -338.65999999999997, -342.78999999999996, -344.855, -346.92, -351.05, -353.115, -355.18, -357.245, -359.31, -363.44, -365.505, -367.57, -369.635, -371.7, -373.765, -375.83, -377.895, -379.96, -382.025, -384.09, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -396.48, -398.545, -398.545, -398.545, -398.545, -398.545, -400.61, -402.675, -402.675, -402.675, -402.675, -402.675, -400.61, -398.545, -398.545, -398.545, -398.545, -396.48, -394.41499999999996, -394.41499999999996, -394.41499999999996, -392.34999999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -384.09, -382.025, -379.96, -377.895, -377.895, -375.83, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -367.57]</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>[427.455, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 423.325, 421.26000000000005, 421.26000000000005, 421.26000000000005, 419.195, 417.13000000000005, 417.13000000000005, 415.065, 412.99999999999994, 412.99999999999994, 410.935, 408.86999999999995, 408.86999999999995, 406.805, 404.73999999999995, 404.73999999999995, 402.675, 400.60999999999996, 400.60999999999996, 398.545, 396.47999999999996, 396.47999999999996, 396.47999999999996, 394.415, 392.34999999999997, 392.34999999999997, 392.34999999999997, 390.285, 388.21999999999997, 388.21999999999997, 388.21999999999997, 386.15500000000003, 384.09, 384.09, 382.02500000000003, 379.96, 379.96, 377.89500000000004, 375.83, 373.76500000000004, 371.7, 369.63500000000005, 367.57, 365.50500000000005, 363.44, 361.37499999999994, 359.31, 357.24499999999995, 355.18, 353.11499999999995, 351.05, 348.98499999999996, 344.85499999999996, 342.79, 340.72499999999997, 336.59499999999997, 334.53000000000003, 332.465, 328.335, 326.27000000000004, 324.205, 320.075, 318.01000000000005, 315.945, 313.88000000000005, 311.815, 307.685, 303.555, 301.48999999999995, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 280.84, 278.77500000000003, 274.64500000000004, 270.51500000000004, 266.38500000000005, 264.32, 262.25500000000005, 258.12500000000006, 253.99499999999995, 251.93, 249.86499999999995, 245.73499999999996, 243.67000000000002, 241.60499999999996, 237.47499999999997, 235.41000000000003, 233.34499999999997, 231.28000000000003, 229.21499999999997, 225.08499999999998, 223.02000000000004, 220.95499999999998, 218.89000000000004, 216.825, 212.695, 208.565, 206.50000000000006, 204.435, 202.36999999999995, 200.305, 196.175, 194.10999999999996, 192.04500000000002, 189.97999999999996, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 150.745, 148.68, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40500000000003, 74.34000000000003, 72.27500000000003, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27500000000003, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 189.97999999999996, 192.04500000000002, 196.175, 198.23999999999995, 200.305, 202.36999999999995, 204.435, 208.565, 210.63000000000005, 212.695, 214.76000000000005, 216.825, 218.89000000000004, 220.95499999999998, 225.08499999999998, 227.15000000000003, 229.21499999999997, 231.28000000000003, 233.34499999999997, 237.47499999999997, 239.54000000000002, 241.60499999999996, 243.67000000000002, 245.73499999999996, 249.86499999999995, 251.93, 253.99499999999995, 258.12500000000006, 262.25500000000005, 264.32, 266.38500000000005, 270.51500000000004, 274.64500000000004, 278.77500000000003, 282.90500000000003, 284.96999999999997, 287.035, 291.165, 295.295, 299.425, 301.48999999999995, 303.555, 307.685, 311.815, 315.945, 320.075, 322.14000000000004, 324.205, 328.335, 332.465, 334.53000000000003, 336.59499999999997, 340.72499999999997, 342.79, 344.85499999999996, 348.98499999999996, 351.05, 353.11499999999995, 355.18, 357.24499999999995, 359.31, 361.37499999999994, 363.44, 365.50500000000005, 367.57, 369.63500000000005, 371.7, 373.76500000000004, 375.83, 377.89500000000004, 379.96, 379.96, 382.02500000000003, 384.09, 386.15500000000003, 388.21999999999997, 388.21999999999997, 390.285, 392.34999999999997, 392.34999999999997, 392.34999999999997, 394.415, 396.47999999999996, 396.47999999999996, 396.47999999999996, 398.545, 400.60999999999996, 400.60999999999996, 400.60999999999996, 402.675, 404.73999999999995, 404.73999999999995, 406.805, 408.86999999999995, 408.86999999999995, 410.935, 412.99999999999994, 412.99999999999994, 412.99999999999994, 415.065, 417.13000000000005, 417.13000000000005, 419.195, 421.26000000000005, 421.26000000000005, 421.26000000000005, 421.26000000000005, 423.325, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 427.455, 429.52000000000004, 429.52000000000004, 429.52000000000004, 427.455]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 117.705, 119.77, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 161.07, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 175.525, 175.525, 177.59, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 177.59, 175.525, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 134.225, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 86.73, 82.6, 78.47, 76.405, 74.34, 70.21, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1219,22 +1219,22 @@
         <v>0.001217255818482812</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>376.5726334106728</v>
+        <v>-218.8135185185185</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>231.1698027842227</v>
+        <v>141.7393055555556</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>431</v>
+        <v>216</v>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 410.935, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 202.37, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 204.435, 202.37, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -192.045, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -359.31, -361.375, -363.44, -365.505, -367.57, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -379.96, -382.025, -382.025, -384.09, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -392.34999999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -384.09, -382.025, -382.025, -379.96, -377.895, -377.895, -375.83, -373.765, -371.7, -369.635, -367.57, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -359.31]</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>[460.49499999999995, 458.43, 458.43, 458.43, 458.43, 456.36499999999995, 454.3, 454.3, 454.3, 452.23499999999996, 450.17, 450.17, 450.17, 448.10499999999996, 446.04, 446.04, 443.97499999999997, 441.91, 441.91, 439.84499999999997, 437.78000000000003, 437.78000000000003, 435.715, 433.65000000000003, 433.65000000000003, 431.585, 429.5199999999999, 427.455, 425.38999999999993, 425.38999999999993, 423.325, 421.25999999999993, 419.195, 417.12999999999994, 415.065, 412.99999999999994, 410.935, 408.86999999999995, 408.86999999999995, 406.805, 404.73999999999995, 402.675, 400.60999999999996, 398.545, 394.415, 392.34999999999997, 390.285, 388.21999999999997, 386.15500000000003, 384.09, 382.02500000000003, 379.96, 377.8949999999999, 375.83, 373.76499999999993, 371.7, 369.63499999999993, 367.57, 365.50499999999994, 361.37499999999994, 359.31, 357.24499999999995, 355.18, 353.11499999999995, 348.98499999999996, 346.92, 344.85499999999996, 340.72499999999997, 336.59499999999997, 334.53000000000003, 332.465, 328.335, 324.205, 320.075, 315.945, 311.815, 307.685, 305.61999999999995, 303.555, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 280.84, 278.77500000000003, 274.64500000000004, 270.51499999999993, 268.45, 266.38499999999993, 262.25499999999994, 260.19, 258.12499999999994, 253.99499999999995, 251.93, 249.86499999999995, 247.8, 245.73499999999996, 243.67000000000002, 241.60499999999996, 237.47499999999997, 235.41000000000003, 233.34499999999997, 229.21499999999997, 225.08499999999998, 223.02000000000004, 220.95499999999998, 216.825, 214.75999999999993, 212.695, 210.62999999999994, 208.565, 206.49999999999994, 204.435, 200.305, 198.24, 196.175, 192.04499999999996, 189.97999999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 156.94, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 103.25, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.72999999999996, 84.66499999999996, 82.59999999999997, 80.53499999999997, 78.46999999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04499999999996, 196.175, 198.24, 200.305, 204.435, 206.49999999999994, 208.565, 210.62999999999994, 212.695, 214.75999999999993, 216.825, 218.88999999999993, 220.95499999999998, 225.08499999999998, 227.15000000000003, 229.21499999999997, 231.28000000000003, 233.34499999999997, 235.41000000000003, 237.47499999999997, 241.60499999999996, 243.67000000000002, 245.73499999999996, 247.8, 249.86499999999995, 251.93, 253.99499999999995, 256.06, 258.12499999999994, 262.25499999999994, 264.32, 266.38499999999993, 270.51499999999993, 272.58, 274.64500000000004, 278.77500000000003, 282.90500000000003, 287.035, 289.09999999999997, 291.165, 295.295, 299.425, 303.555, 307.685, 311.815, 315.945, 320.075, 324.205, 328.335, 332.465, 336.59499999999997, 338.66, 340.72499999999997, 344.85499999999996, 348.98499999999996, 351.05, 353.11499999999995, 357.24499999999995, 359.31, 361.37499999999994, 365.50499999999994, 367.57, 369.63499999999993, 373.76499999999993, 375.83, 377.8949999999999, 379.96, 382.02500000000003, 384.09, 386.15500000000003, 388.21999999999997, 390.285, 392.34999999999997, 394.415, 396.47999999999996, 398.545, 400.60999999999996, 402.675, 404.73999999999995, 406.805, 408.86999999999995, 410.935, 412.99999999999994, 415.065, 417.12999999999994, 419.195, 421.25999999999993, 421.25999999999993, 423.325, 425.38999999999993, 427.455, 429.5199999999999, 429.5199999999999, 431.585, 433.65000000000003, 433.65000000000003, 435.715, 437.78000000000003, 437.78000000000003, 439.84499999999997, 441.91, 441.91, 443.97499999999997, 446.04, 446.04, 446.04, 448.10499999999996, 450.17, 450.17, 450.17, 452.23499999999996, 454.3, 454.3, 454.3, 454.3, 456.36499999999995, 458.43, 458.43, 458.43, 458.43, 458.43, 458.43, 460.49499999999995, 462.56, 462.56, 462.56, 462.56, 462.56, 460.49499999999995]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 161.07, 163.135, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 175.525, 177.59, 179.655, 181.72, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 173.46, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 134.225, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 64.015, 61.949999999999996, 57.82, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
         <v>0.001265946051222125</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>375.8534126984127</v>
+        <v>-218.0303619909503</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>243.2907142857142</v>
+        <v>147.7736425339367</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-80.535, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -384.09, -386.155, -386.155, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -386.155, -386.155, -384.09, -382.025, -382.025, -379.96, -377.895, -377.895, -375.83, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -363.44, -361.375, -359.31, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985]</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>[485.2749999999999, 483.21, 483.21, 483.21, 483.21, 481.1449999999999, 479.08, 479.08, 479.08, 477.01499999999993, 474.95, 474.95, 474.95, 472.88499999999993, 470.82, 470.82, 468.75499999999994, 466.69, 466.69, 464.62499999999994, 462.56, 462.56, 460.49499999999995, 458.43, 458.43, 456.36499999999995, 454.3, 452.23499999999996, 450.17, 448.10499999999996, 446.04, 446.04, 443.97499999999997, 441.9099999999999, 439.84499999999997, 437.7799999999999, 435.715, 433.6499999999999, 431.585, 429.5199999999999, 427.455, 423.325, 421.25999999999993, 419.195, 417.12999999999994, 415.065, 410.935, 408.86999999999995, 406.805, 402.675, 400.60999999999996, 398.545, 394.415, 392.34999999999997, 390.2849999999999, 386.1549999999999, 384.09, 382.0249999999999, 377.8949999999999, 373.76499999999993, 371.7, 369.63499999999993, 365.50499999999994, 363.44, 361.37499999999994, 357.24499999999995, 353.11499999999995, 351.05, 348.98499999999996, 344.85499999999996, 340.72499999999997, 338.6599999999999, 336.59499999999997, 332.465, 328.335, 324.205, 320.075, 315.945, 311.815, 307.685, 303.555, 299.425, 295.295, 291.165, 287.035, 284.96999999999997, 282.9049999999999, 278.7749999999999, 276.71, 274.6449999999999, 272.58, 270.51499999999993, 266.38499999999993, 264.32, 262.25499999999994, 260.19, 258.12499999999994, 256.06, 253.99499999999995, 251.93, 249.86499999999995, 247.8, 245.73499999999996, 241.60499999999996, 237.47499999999997, 233.34499999999997, 231.27999999999992, 229.21499999999997, 227.14999999999992, 225.08499999999998, 223.01999999999992, 220.95499999999998, 218.88999999999993, 216.825, 214.76, 212.695, 210.63, 208.565, 204.43499999999995, 202.36999999999995, 200.30499999999995, 198.23999999999995, 196.17499999999995, 192.04499999999996, 187.91499999999996, 183.78499999999997, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.74499999999995, 146.61499999999995, 144.54999999999995, 142.48499999999996, 138.35499999999996, 134.22499999999997, 132.15999999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.11999999999995, 97.05499999999995, 92.92499999999995, 90.85999999999996, 88.79499999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.49499999999995, 45.42999999999995, 45.42999999999995, 43.36499999999995, 41.299999999999955, 39.23499999999996, 37.16999999999996, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10499999999996, 37.16999999999996, 39.23499999999996, 41.299999999999955, 43.36499999999995, 45.42999999999995, 47.49499999999995, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 90.85999999999996, 92.92499999999995, 97.05499999999995, 99.11999999999995, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 140.41999999999996, 142.48499999999996, 146.61499999999995, 150.74499999999995, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04499999999996, 196.17499999999995, 198.23999999999995, 200.30499999999995, 204.43499999999995, 206.49999999999994, 208.565, 210.63, 212.695, 216.825, 218.88999999999993, 220.95499999999998, 223.01999999999992, 225.08499999999998, 227.14999999999992, 229.21499999999997, 231.27999999999992, 233.34499999999997, 235.41000000000003, 237.47499999999997, 241.60499999999996, 245.73499999999996, 247.8, 249.86499999999995, 251.93, 253.99499999999995, 256.06, 258.12499999999994, 260.19, 262.25499999999994, 264.32, 266.38499999999993, 268.45, 270.51499999999993, 274.6449999999999, 276.71, 278.7749999999999, 280.84, 282.9049999999999, 287.035, 291.165, 293.22999999999996, 295.295, 299.425, 303.555, 307.685, 309.74999999999994, 311.815, 315.945, 320.075, 324.205, 328.335, 332.465, 336.59499999999997, 338.6599999999999, 340.72499999999997, 344.85499999999996, 348.98499999999996, 353.11499999999995, 357.24499999999995, 359.31, 361.37499999999994, 365.50499999999994, 369.63499999999993, 371.7, 373.76499999999993, 377.8949999999999, 382.0249999999999, 384.09, 386.1549999999999, 390.2849999999999, 392.34999999999997, 394.415, 396.47999999999996, 398.545, 402.675, 404.73999999999995, 406.805, 410.935, 412.99999999999994, 415.065, 417.12999999999994, 419.195, 421.25999999999993, 423.325, 427.455, 429.5199999999999, 431.585, 433.6499999999999, 435.715, 437.7799999999999, 439.84499999999997, 441.9099999999999, 443.97499999999997, 446.04, 448.10499999999996, 450.17, 450.17, 452.23499999999996, 454.3, 456.36499999999995, 458.43, 458.43, 460.49499999999995, 462.56, 462.56, 464.62499999999994, 466.69, 466.69, 468.75499999999994, 470.82, 470.82, 472.88499999999993, 474.95, 474.95, 474.95, 477.01499999999993, 479.08, 479.08, 479.08, 479.08, 481.1449999999999, 483.21, 483.21, 483.21, 483.21, 483.21, 485.2749999999999, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 485.2749999999999]</t>
+          <t>[4.13, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 154.875, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1277,22 +1277,22 @@
         <v>0.001314636283961437</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>377.2424040632054</v>
+        <v>-217.3528251121077</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>251.999920993228</v>
+        <v>152.3006950672646</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>443</v>
+        <v>223</v>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-86.73, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -379.96, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -342.78999999999996]</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>[501.79499999999996, 499.73, 499.73, 499.73, 499.73, 497.66499999999996, 495.6, 495.6, 495.6, 493.53499999999997, 491.47, 491.47, 489.405, 487.34000000000003, 487.34000000000003, 487.34000000000003, 485.275, 483.21000000000004, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 474.95000000000005, 472.885, 470.82000000000005, 470.82000000000005, 468.755, 466.69000000000005, 464.625, 462.56000000000006, 460.495, 458.43000000000006, 456.365, 454.30000000000007, 452.235, 450.16999999999996, 448.105, 446.03999999999996, 443.975, 441.90999999999997, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 417.13, 415.06500000000005, 410.93500000000006, 408.87, 406.80500000000006, 402.67500000000007, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.44000000000005, 361.375, 357.245, 353.115, 348.985, 344.855, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 320.07500000000005, 315.94500000000005, 311.81500000000005, 307.68500000000006, 305.62, 303.55500000000006, 299.42500000000007, 295.2950000000001, 293.23, 291.16499999999996, 287.03499999999997, 282.905, 280.84000000000003, 278.775, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.19000000000005, 258.125, 256.06000000000006, 253.995, 251.93000000000006, 249.865, 247.80000000000007, 245.735, 241.60500000000002, 239.53999999999996, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.27999999999997, 229.21500000000003, 227.14999999999998, 225.08500000000004, 220.95500000000004, 218.89000000000004, 216.82500000000005, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.59000000000003, 175.52500000000003, 171.39500000000004, 167.26500000000004, 163.13500000000005, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.03000000000003, 125.96500000000003, 121.83500000000004, 117.70500000000004, 113.57500000000005, 111.51000000000005, 109.44500000000005, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40500000000003, 74.34000000000003, 72.27500000000003, 70.21000000000004, 68.14500000000004, 64.01500000000004, 61.950000000000045, 59.88500000000005, 57.82000000000005, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.585000000000036, 16.52000000000004, 16.52000000000004, 14.455000000000041, 12.390000000000043, 12.390000000000043, 12.390000000000043, 10.325000000000045, 8.260000000000048, 8.260000000000048, 8.260000000000048, 6.19500000000005, 4.130000000000052, 4.130000000000052, 4.130000000000052, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.130000000000052, 4.130000000000052, 4.130000000000052, 4.130000000000052, 4.130000000000052, 6.19500000000005, 8.260000000000048, 8.260000000000048, 8.260000000000048, 10.325000000000045, 12.390000000000043, 12.390000000000043, 12.390000000000043, 14.455000000000041, 16.52000000000004, 16.52000000000004, 18.585000000000036, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.82000000000005, 59.88500000000005, 61.950000000000045, 64.01500000000004, 66.08000000000004, 68.14500000000004, 72.27500000000003, 74.34000000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 103.25, 105.315, 109.44500000000005, 113.57500000000005, 117.70500000000004, 119.77000000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.13500000000005, 167.26500000000004, 171.39500000000004, 175.52500000000003, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.82500000000005, 218.89000000000004, 220.95500000000004, 225.08500000000004, 227.14999999999998, 229.21500000000003, 231.27999999999997, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 245.735, 247.80000000000007, 249.865, 251.93000000000006, 253.995, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 282.905, 284.97, 287.03499999999997, 291.16499999999996, 293.23, 295.2950000000001, 299.42500000000007, 301.49, 303.55500000000006, 307.68500000000006, 311.81500000000005, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 328.33500000000004, 332.46500000000003, 336.595, 340.725, 344.855, 348.985, 353.115, 357.245, 361.375, 365.505, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67500000000007, 404.74, 406.80500000000006, 410.93500000000006, 413.0, 415.06500000000005, 419.19500000000005, 421.26, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 446.03999999999996, 448.105, 450.16999999999996, 452.235, 454.30000000000007, 456.365, 458.43000000000006, 460.495, 462.56000000000006, 464.625, 466.69000000000005, 466.69000000000005, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 474.95000000000005, 477.015, 479.08000000000004, 479.08000000000004, 481.145, 483.21000000000004, 483.21000000000004, 485.275, 487.34000000000003, 487.34000000000003, 489.405, 491.47, 491.47, 491.47, 493.53499999999997, 495.6, 495.6, 495.6, 495.6, 497.66499999999996, 499.73, 499.73, 499.73, 499.73, 499.73, 501.79499999999996, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 501.79499999999996]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1306,22 +1306,22 @@
         <v>0.00136332651670075</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>377.6809179265659</v>
+        <v>-216.9233333333333</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>260.2925809935205</v>
+        <v>156.4483333333334</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>463</v>
+        <v>231</v>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-101.185, -101.185, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -379.96, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -328.335]</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>[518.315, 516.25, 516.25, 516.25, 514.1850000000001, 512.12, 512.12, 512.12, 510.05499999999995, 507.99, 507.99, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 499.73, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.82000000000005, 468.755, 466.69000000000005, 464.625, 462.56000000000006, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 421.26, 419.19500000000005, 415.06500000000005, 410.93500000000006, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 307.68500000000006, 305.62, 303.55500000000006, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 258.125, 253.995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.53999999999996, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.28000000000003, 229.21500000000003, 225.08500000000004, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65500000000003, 175.52500000000003, 173.46000000000004, 171.39500000000004, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83500000000004, 119.77000000000004, 117.70500000000004, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27500000000003, 70.21000000000004, 68.14500000000004, 66.08000000000004, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.585000000000036, 16.52000000000004, 16.52000000000004, 14.455000000000041, 12.390000000000043, 12.390000000000043, 12.390000000000043, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.390000000000043, 12.390000000000043, 12.390000000000043, 14.455000000000041, 16.52000000000004, 16.52000000000004, 18.585000000000036, 20.650000000000034, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.08000000000004, 68.14500000000004, 72.27500000000003, 74.34000000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70500000000004, 119.77000000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39500000000004, 175.52500000000003, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08500000000004, 227.15000000000003, 229.21500000000003, 231.28000000000003, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 253.995, 258.125, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 303.55500000000006, 305.62, 307.68500000000006, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 357.245, 361.375, 365.505, 369.635, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93500000000006, 413.0, 415.06500000000005, 419.19500000000005, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 437.78, 439.845, 443.975, 446.03999999999996, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 462.56000000000006, 464.625, 466.69000000000005, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 491.47, 493.53499999999997, 495.6, 495.6, 497.66499999999996, 499.73, 499.73, 501.79499999999996, 503.86, 503.86, 503.86, 505.92499999999995, 507.99, 507.99, 507.99, 510.05499999999995, 512.12, 512.12, 512.12, 512.12, 514.1850000000001, 516.25, 516.25, 516.25, 516.25, 516.25, 518.315, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 518.315]</t>
+          <t>[4.13, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 82.6, 80.535, 78.47, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1335,22 +1335,22 @@
         <v>0.001412016749440062</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>377.6416257668712</v>
+        <v>-217.3222857142857</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>268.4880061349693</v>
+        <v>156.1392857142857</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 477.015, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-117.705, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -379.96, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -307.685, -309.75]</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.82000000000005, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 365.505, 367.57000000000005, 369.635, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 454.29999999999995, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 470.82000000000005, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1364,22 +1364,22 @@
         <v>0.001460706982179375</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>379.7269207920792</v>
+        <v>-214.8419444444444</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>276.7304455445545</v>
+        <v>158.5952777777778</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>505</v>
+        <v>252</v>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 464.625, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 299.425, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-130.095, -130.095, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -192.045, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -295.295]</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>[551.355, 549.29, 549.29, 549.29, 549.29, 549.29, 547.225, 545.16, 545.16, 545.16, 543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.5749999999999, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 274.645, 270.515, 268.45000000000005, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.8, 245.735, 243.67000000000002, 241.60500000000002, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60500000000002, 243.67000000000002, 245.735, 247.8, 247.8, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.45000000000005, 270.515, 274.645, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.94999999999993, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.5749999999999, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 549.29, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 553.42, 551.355]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1393,22 +1393,22 @@
         <v>0.001509397214918687</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>379.6854624277457</v>
+        <v>-215.0935769230769</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>280.851936416185</v>
+        <v>158.7985</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>519</v>
+        <v>260</v>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 456.365, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-138.355, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905, -284.96999999999997]</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>[559.615, 557.55, 557.55, 557.55, 557.55, 555.485, 553.42, 553.42, 553.42, 551.355, 549.29, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 530.7049999999999, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.0799999999999, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 278.775, 274.645, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.93, 249.865, 247.8, 247.8, 245.735, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 189.97999999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.735, 247.8, 249.865, 251.93, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.58000000000004, 274.645, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 532.77, 534.835, 536.9, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 559.615]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1422,22 +1422,22 @@
         <v>0.001558087447658</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>380.9866885553471</v>
+        <v>-212.9502247191011</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>284.5089587242027</v>
+        <v>159.8712172284644</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>533</v>
+        <v>267</v>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 448.10499999999996, 448.10499999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 320.075, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-146.615, -146.615, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -274.645]</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>[567.875, 565.81, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 534.8349999999999, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 435.71500000000003, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 282.905, 278.775, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.06, 253.995, 251.93, 249.865, 247.79999999999995, 247.79999999999995, 245.73499999999996, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.10999999999996, 192.04499999999996, 187.91499999999996, 183.78499999999997, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 136.28999999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.59999999999997, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10499999999996, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04499999999996, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.73499999999996, 247.79999999999995, 249.865, 251.93, 251.93, 253.995, 256.06, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.775, 282.905, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 536.9, 538.965, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1451,22 +1451,22 @@
         <v>0.001606777680397312</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>382.0324954627949</v>
+        <v>-212.4788086642599</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>289.0962522686025</v>
+        <v>157.8718592057762</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>551</v>
+        <v>277</v>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-156.94, -159.005, -156.94, -154.875, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -192.045, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 443.975, 439.845, 435.7149999999999, 433.65, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 256.06000000000006, 253.99500000000003, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 239.54, 237.475, 235.41, 233.345, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 187.915, 185.85, 183.785, 179.655, 175.525, 171.395, 169.33, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 132.16, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 103.25000000000003, 101.18500000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 72.275, 70.21000000000001, 68.14500000000001, 66.08000000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 37.16999999999999, 35.10499999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 94.99000000000004, 97.05500000000004, 101.18500000000003, 105.31500000000003, 107.38000000000002, 109.44500000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 128.03, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 156.94000000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 171.395, 175.525, 177.59, 179.655, 183.785, 187.915, 189.98, 192.045, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1480,22 +1480,22 @@
         <v>0.001655467913136625</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>383.0816846846847</v>
+        <v>-210.8825539568346</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>289.6022972972973</v>
+        <v>157.2371223021583</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>555</v>
+        <v>278</v>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 431.585, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 365.505, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-161.07, -163.135, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -229.215, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.3399999999999, 485.275, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 187.915, 185.85, 183.785, 179.655, 175.525, 173.46, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 123.9, 121.83500000000001, 117.70500000000001, 113.57500000000002, 109.44500000000002, 107.38000000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 88.79499999999999, 86.72999999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 68.14500000000001, 66.08000000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 94.99000000000004, 97.05500000000004, 101.18500000000003, 105.31500000000003, 107.38000000000002, 109.44500000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 169.33, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30500000000004, 202.37000000000003, 204.43500000000003, 206.50000000000003, 208.56500000000003, 212.69500000000002, 214.76000000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 429.52, 431.5849999999999, 435.7149999999999, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 117.705, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
         <v>0.001704158145875937</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>384.0343895870736</v>
+        <v>-210.55625</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>289.0888779174147</v>
+        <v>156.6745</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>557</v>
+        <v>280</v>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-165.2, -167.265, -165.2, -163.135, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -258.125, -256.06, -251.93, -249.86499999999998, -249.86499999999998, -251.93]</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 543.095, 541.03, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.3399999999999, 485.275, 481.145, 479.0799999999999, 477.015, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 258.125, 256.06000000000006, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 214.76000000000002, 212.69500000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 189.98, 187.915, 183.785, 179.655, 177.59, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 121.83500000000001, 119.77000000000001, 117.70500000000001, 113.57500000000002, 109.44500000000002, 107.38000000000002, 105.31500000000003, 101.18500000000003, 97.05500000000004, 94.99000000000004, 92.92499999999998, 88.79499999999999, 86.72999999999999, 84.66499999999999, 80.535, 78.47, 76.405, 72.275, 70.21000000000001, 68.14500000000001, 66.08000000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.974999999999994, 33.03999999999999, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 97.05500000000004, 99.12000000000003, 101.18500000000003, 105.31500000000003, 109.44500000000002, 111.51000000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 165.20000000000002, 167.26500000000001, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 189.98, 192.045, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 214.76000000000002, 216.82500000000002, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         <v>0.00175284837861525</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>384.5015170556553</v>
+        <v>-209.8898566308244</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>289.0295601436265</v>
+        <v>157.4803046594982</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>557</v>
+        <v>279</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-165.2, -167.265, -165.2, -163.135, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -249.86499999999998]</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 481.145, 479.0799999999999, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 214.76000000000002, 212.69500000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 189.98, 187.915, 183.785, 179.655, 177.59, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 115.64000000000001, 113.57500000000002, 109.44500000000002, 105.31500000000003, 103.25000000000003, 101.18500000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 72.275, 70.21000000000001, 68.14500000000001, 66.08000000000001, 64.01500000000001, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.974999999999994, 33.03999999999999, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 68.14500000000001, 70.21000000000001, 72.275, 74.34, 76.405, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05500000000004, 99.12000000000003, 101.18500000000003, 105.31500000000003, 109.44500000000002, 113.57500000000002, 115.64000000000001, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 161.07000000000002, 163.13500000000002, 167.26500000000001, 171.395, 175.525, 177.59, 179.655, 183.785, 185.85, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30500000000004, 202.37000000000003, 204.43500000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 214.76000000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 291.16499999999996, 293.23, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 413.0, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1567,22 +1567,22 @@
         <v>0.001801538611354562</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>386.0816429840142</v>
+        <v>-208.4701413427562</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>289.0449822380107</v>
+        <v>156.2468021201413</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>563</v>
+        <v>283</v>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 346.92, 348.985, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-165.2, -167.265, -165.2, -163.135, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -247.79999999999998, -245.73499999999999, -247.79999999999998]</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 443.975, 439.845, 435.7149999999999, 433.65, 431.5849999999999, 427.4549999999999, 423.32499999999993, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 384.0899999999999, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 334.53, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 256.06000000000006, 253.99500000000003, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 216.82500000000002, 214.76000000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 204.43500000000003, 202.37000000000003, 200.30500000000004, 196.17499999999998, 194.10999999999999, 192.045, 187.915, 183.785, 181.72, 179.655, 175.525, 171.395, 167.26500000000001, 165.20000000000002, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 132.16, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 68.14500000000001, 70.21000000000001, 72.275, 74.34, 76.405, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05500000000004, 101.18500000000003, 103.25000000000003, 105.31500000000003, 109.44500000000002, 113.57500000000002, 117.70500000000001, 119.77000000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 152.81000000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 171.395, 173.46, 175.525, 179.655, 183.785, 185.85, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30500000000004, 202.37000000000003, 204.43500000000003, 206.50000000000003, 208.56500000000003, 212.69500000000002, 214.76000000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 138.355, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1596,22 +1596,22 @@
         <v>0.001850228844093875</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>386.4494741532977</v>
+        <v>-208.0817021276596</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>289.0447860962567</v>
+        <v>156.383475177305</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>561</v>
+        <v>282</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 431.585, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 346.92, 348.985, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-161.07, -163.135, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -247.79999999999998, -245.73499999999999, -247.79999999999998]</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 187.915, 185.85, 183.785, 179.655, 175.525, 171.395, 169.33, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 128.03, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.974999999999994, 33.03999999999999, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 70.21000000000001, 72.275, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 94.99000000000004, 97.05500000000004, 101.18500000000003, 105.31500000000003, 107.38000000000002, 109.44500000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 132.16, 134.225, 138.355, 142.48499999999999, 144.54999999999998, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 169.33, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 425.39, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1625,22 +1625,22 @@
         <v>0.001898919076833187</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>388.1565189873418</v>
+        <v>-206.3514388489209</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>289.0962658227848</v>
+        <v>156.8062949640288</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>553</v>
+        <v>278</v>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-156.94, -159.005, -156.94, -154.875, -152.81, -150.745, -148.68, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -249.86499999999998, -251.93]</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 543.095, 541.03, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.0899999999999, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 216.82500000000002, 214.76000000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 204.43500000000003, 202.37000000000003, 200.30500000000004, 196.17499999999998, 192.045, 189.98, 187.915, 183.785, 179.655, 177.59, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 123.9, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05500000000004, 99.12000000000003, 101.18500000000003, 105.31500000000003, 109.44500000000002, 111.51000000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 165.20000000000002, 167.26500000000001, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 189.98, 192.045, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1654,22 @@
         <v>0.0019476093095725</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>388.4139502762432</v>
+        <v>-206.1369230769231</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>284.966197053407</v>
+        <v>156.7508974358974</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>543</v>
+        <v>273</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-148.68, -150.745, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -258.125, -256.06, -253.995, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>[567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 534.8349999999999, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.34000000000003, 485.275, 483.2099999999999, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.06, 256.06, 253.995, 251.93, 249.865, 247.79999999999995, 245.73499999999996, 243.66999999999996, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 202.37, 200.305, 196.175, 192.04499999999996, 189.97999999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79499999999996, 86.72999999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91499999999996, 192.04499999999996, 194.10999999999996, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.73499999999996, 247.79999999999995, 247.79999999999995, 249.865, 251.93, 253.995, 256.06, 256.06, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.775, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.71500000000003, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1683,22 @@
         <v>0.001996299542311812</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>389.3348701298701</v>
+        <v>-204.6185555555555</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>284.5217532467532</v>
+        <v>158.439037037037</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>539</v>
+        <v>270</v>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 452.235, 452.235, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-142.48499999999999, -142.48499999999999, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>[567.875, 565.81, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.34000000000003, 485.275, 483.2099999999999, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 282.905, 278.775, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.06, 256.06, 253.995, 251.93, 249.865, 247.79999999999995, 245.73499999999996, 243.66999999999996, 241.60499999999996, 239.53999999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 196.175, 194.10999999999996, 192.04499999999996, 187.91499999999996, 185.84999999999997, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 136.28999999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79499999999996, 86.72999999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10499999999996, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91499999999996, 192.04499999999996, 194.10999999999996, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.73499999999996, 247.79999999999995, 249.865, 251.93, 251.93, 253.995, 256.06, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.775, 282.905, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 532.77, 534.8349999999999, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1712,22 +1712,22 @@
         <v>0.002044989775051125</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>390.8315028355387</v>
+        <v>-203.1394676806083</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>281.3435633270321</v>
+        <v>158.1884220532319</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>529</v>
+        <v>263</v>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>[427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 460.495, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 427.455]</t>
+          <t>[-134.225, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>[559.615, 557.55, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 530.7049999999999, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.21000000000004, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.58500000000004, 427.4549999999999, 425.39, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 278.775, 274.645, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.93, 251.93, 249.865, 247.8, 245.735, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91499999999996, 185.84999999999997, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 169.32999999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22499999999997, 130.09499999999997, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66499999999996, 82.59999999999997, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.735, 247.8, 249.865, 251.93, 251.93, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.58000000000004, 274.645, 278.775, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32499999999993, 427.4549999999999, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 532.77, 534.835, 536.9, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 559.615]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
         <v>0.002093680007790437</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>391.6960172744722</v>
+        <v>-203.1453639846743</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>280.8835988483685</v>
+        <v>158.0872222222222</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>521</v>
+        <v>261</v>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 468.755, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-125.965, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -266.385, -268.45]</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>[559.615, 557.55, 557.55, 557.55, 557.55, 555.485, 553.42, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.21000000000004, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 278.775, 274.645, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.93, 249.865, 247.8, 245.735, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22499999999997, 130.09499999999997, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66499999999996, 82.59999999999997, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.735, 247.8, 247.8, 249.865, 251.93, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.58000000000004, 274.645, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 528.64, 530.7049999999999, 532.77, 534.835, 536.9, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 559.615]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1770,22 +1770,22 @@
         <v>0.00214237024052975</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>393.1719902912621</v>
+        <v>-201.7136821705427</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>276.6578737864078</v>
+        <v>157.4042248062015</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>515</v>
+        <v>258</v>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 477.015, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-117.705, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -270.515, -272.58]</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>[551.355, 549.29, 549.29, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 274.645, 270.515, 268.45000000000005, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.8, 245.735, 243.67000000000002, 241.60500000000002, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78499999999997, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 156.94, 154.875, 150.745, 146.615, 144.55, 142.485, 138.35500000000002, 134.22500000000002, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53499999999997, 78.46999999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60500000000002, 243.67000000000002, 245.735, 247.8, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.45000000000005, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 551.355]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1799,22 +1799,22 @@
         <v>0.002191060473269062</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>393.624842209073</v>
+        <v>-200.9123529411764</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>272.5677810650888</v>
+        <v>155.701</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>507</v>
+        <v>255</v>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 315.945, 318.01, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-111.50999999999999, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -278.775, -276.71, -274.645, -276.71]</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1828,22 +1828,22 @@
         <v>0.002239750706008375</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>395.8220140280561</v>
+        <v>-199.7659437751004</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>273.1386673346694</v>
+        <v>157.0975702811245</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 311.815, 313.88, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-105.315, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -282.905, -280.84, -278.775, -280.84]</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 239.54000000000002, 237.47500000000002, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1857,22 @@
         <v>0.002288440938747687</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>396.3159775967413</v>
+        <v>-198.6445714285714</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>268.9841242362525</v>
+        <v>156.5438571428571</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>491</v>
+        <v>245</v>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-99.12, -101.185, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905]</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.82000000000005, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 270.515, 272.58000000000004, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 470.82000000000005, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
         <v>0.002337131171487</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>397.9250811359026</v>
+        <v>-197.7363414634146</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>268.9568255578094</v>
+        <v>156.4027642276423</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-97.05499999999999, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905, -284.96999999999997]</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19500000000005, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 371.70000000000005, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65500000000003, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19500000000005, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 462.55999999999995, 464.625, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1915,22 +1915,22 @@
         <v>0.002385821404226312</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>398.0655498981669</v>
+        <v>-197.65</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>269.0261812627291</v>
+        <v>156.7292857142857</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>491</v>
+        <v>245</v>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905, -284.96999999999997]</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19500000000005, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 144.55, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 520.38, 522.445, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -1944,22 +1944,22 @@
         <v>0.002434511636965625</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>399.9442813141683</v>
+        <v>-195.3728925619835</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>269.0478747433265</v>
+        <v>157.759173553719</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>487</v>
+        <v>242</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905]</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.82000000000005, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19500000000005, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.03000000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
         <v>0.002483201869704937</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>400.8413136456212</v>
+        <v>-195.5487295081967</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>269.3710488798371</v>
+        <v>157.0077049180328</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>491</v>
+        <v>244</v>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 365.505, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -229.215, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -278.775, -280.84]</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.82000000000005, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 367.57000000000005, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2002,22 +2002,22 @@
         <v>0.00253189210244425</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>401.1670892494929</v>
+        <v>-194.8408230452675</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>270.5568864097363</v>
+        <v>158.0022427983539</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 315.945, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 390.28499999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -278.775]</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>[538.965, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 367.57000000000005, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2031,22 +2031,22 @@
         <v>0.002580582335183562</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>402.1784068136272</v>
+        <v>-193.1274596774194</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>273.1138376753507</v>
+        <v>158.6552822580645</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>[427.455, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 320.075, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 427.455]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -274.645]</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 169.32999999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 128.02999999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 413.0, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2060,22 +2060,22 @@
         <v>0.002629272567922875</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>403.6638732394366</v>
+        <v>-191.9284274193548</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>273.1242957746479</v>
+        <v>157.9225403225807</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -270.515, -272.58]</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2089,22 +2089,22 @@
         <v>0.002677962800662187</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>404.1209154929577</v>
+        <v>-191.2173279352226</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>273.1076760563381</v>
+        <v>158.9046761133603</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 324.205, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -270.515]</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2118,22 +2118,22 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>404.1730561122244</v>
+        <v>-191.4561847389558</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>273.1303907815631</v>
+        <v>157.7610240963855</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 324.205, 326.27, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -270.515, -268.45, -266.385, -268.45]</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2147,22 +2147,22 @@
         <v>0.002775343266140812</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>404.6530961923847</v>
+        <v>-190.6461290322581</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>273.1138376753507</v>
+        <v>158.5553629032258</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -266.385]</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2176,22 +2176,22 @@
         <v>0.002824033498880125</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>407.1041549295774</v>
+        <v>-187.0773895582329</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>272.6921830985916</v>
+        <v>157.6780923694779</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>497</v>
+        <v>249</v>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-90.86, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -266.385]</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2205,22 +2205,22 @@
         <v>0.002872723731619437</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>407.8271126760563</v>
+        <v>-187.5053441295547</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>273.1658450704225</v>
+        <v>158.887955465587</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -266.385]</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2234,22 +2234,22 @@
         <v>0.00292141396435875</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>407.8809519038076</v>
+        <v>-187.8071887550201</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>273.163496993988</v>
+        <v>157.5454016064257</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 505.925, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-88.795, -88.795, -86.73, -84.66499999999999, -82.6, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2263,22 +2263,22 @@
         <v>0.002970104197098062</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>408.1871843687374</v>
+        <v>-187.03944</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>273.2131563126252</v>
+        <v>156.82436</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>499</v>
+        <v>250</v>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-86.73, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 243.67000000000002, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2292,22 +2292,22 @@
         <v>0.003018794429837374</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>408.1678169014085</v>
+        <v>-187.4487096774193</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>273.1990845070422</v>
+        <v>158.0391129032258</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 328.335, 330.4, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -266.385, -264.32, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>409.7956896551724</v>
+        <v>-185.85</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>273.2292393509128</v>
+        <v>158.165569105691</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2350,22 +2350,22 @@
         <v>0.003116174895315999</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>410.8432222222222</v>
+        <v>-183.7431983805668</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>272.742696969697</v>
+        <v>158.6204251012146</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>495</v>
+        <v>247</v>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 510.055, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 144.55, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 130.095, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2379,22 +2379,22 @@
         <v>0.003164865128055312</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>411.1185555555555</v>
+        <v>-183.1022177419355</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>272.742696969697</v>
+        <v>158.0890725806451</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 512.12, 514.185, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-82.6, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2408,22 +2408,22 @@
         <v>0.003213555360794625</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>411.2854242424242</v>
+        <v>-182.8690725806452</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>272.7260101010102</v>
+        <v>158.155685483871</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-82.6, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
         <v>0.003262245593533937</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>411.9033567134268</v>
+        <v>-183.2894</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>273.1966032064129</v>
+        <v>156.87392</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>499</v>
+        <v>250</v>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-82.6, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -260.19]</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 371.70000000000005, 369.635, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2466,22 +2466,22 @@
         <v>0.00331093582627325</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>411.7493661971831</v>
+        <v>-183.8349596774193</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>273.2157042253522</v>
+        <v>158.155685483871</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 332.465, 334.53, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -264.32, -262.255, -262.255, -260.19, -258.125, -260.19]</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2495,22 +2495,22 @@
         <v>0.003359626059012562</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>411.998661971831</v>
+        <v>-183.601814516129</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>273.1990845070422</v>
+        <v>158.155685483871</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -258.125, -260.19]</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 144.55, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2524,22 +2524,22 @@
         <v>0.003408316291751875</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>412.2396478873239</v>
+        <v>-183.0910931174089</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>273.232323943662</v>
+        <v>158.821072874494</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 136.29000000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 140.42, 138.355, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2553,22 +2553,22 @@
         <v>0.003457006524491187</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>413.0709191919191</v>
+        <v>-181.5851428571429</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>273.8023131313132</v>
+        <v>159.0555714285715</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>495</v>
+        <v>245</v>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>0.0035056967572305</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>413.8921805273833</v>
+        <v>-181.5008571428571</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>273.2376166328601</v>
+        <v>159.0724285714286</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
         <v>0.003554386989969812</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>414.0010851926977</v>
+        <v>-181.3491428571428</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>273.2627484787018</v>
+        <v>159.0892857142857</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2640,22 +2640,22 @@
         <v>0.003603077222709125</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>414.0513488843814</v>
+        <v>-181.2817142857143</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>273.2459939148073</v>
+        <v>159.123</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2669,22 +2669,22 @@
         <v>0.003651767455448437</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>414.1183671399594</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>273.2459939148073</v>
+        <v>158.4845528455284</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2698,22 +2698,22 @@
         <v>0.00370045768818775</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>414.1770081135903</v>
+        <v>-180.779837398374</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>273.2376166328601</v>
+        <v>158.4677642276423</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -2727,22 +2727,22 @@
         <v>0.003749147920927062</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>413.9219494949495</v>
+        <v>-181.3536290322581</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>273.2349595959596</v>
+        <v>157.2064516129032</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2756,22 +2756,22 @@
         <v>0.003797838153666374</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>413.9636666666667</v>
+        <v>-181.3036693548387</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>273.2266161616162</v>
+        <v>157.2231048387097</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2785,22 +2785,22 @@
         <v>0.003846528386405687</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>414.6827464788732</v>
+        <v>-179.95236</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>272.7669718309859</v>
+        <v>156.90696</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2814,22 +2814,22 @@
         <v>0.003895218619144999</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>414.6993661971832</v>
+        <v>-179.9028</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>272.7669718309859</v>
+        <v>156.89044</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2843,22 +2843,22 @@
         <v>0.003943908851884312</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>414.6993661971832</v>
+        <v>-179.9193199999999</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>272.7835915492958</v>
+        <v>156.87392</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2872,22 +2872,22 @@
         <v>0.003992599084623624</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>414.7326056338028</v>
+        <v>-179.86976</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>272.7835915492958</v>
+        <v>156.8574</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2901,22 +2901,22 @@
         <v>0.004041289317362937</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>414.715985915493</v>
+        <v>-179.88628</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>272.8002112676056</v>
+        <v>156.84088</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2930,22 +2930,22 @@
         <v>0.00408997955010225</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>414.7326056338028</v>
+        <v>-179.86976</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>272.7835915492957</v>
+        <v>156.8574</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2959,22 +2959,22 @@
         <v>0.004138669782841562</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>414.6910563380281</v>
+        <v>-179.9028</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>272.7752816901408</v>
+        <v>156.8574</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -2988,22 +2988,22 @@
         <v>0.004187360015580874</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>414.0137272727272</v>
+        <v>-181.2537096774194</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>273.2599898989899</v>
+        <v>157.1398387096774</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -3017,22 +3017,22 @@
         <v>0.004236050248320187</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>413.9970404040404</v>
+        <v>-181.2370564516129</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>273.25998989899</v>
+        <v>157.123185483871</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
     </row>
@@ -3046,22 +3046,22 @@
         <v>0.004284740481059499</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>414.2775354969573</v>
+        <v>-180.6791056910569</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>273.2543711967546</v>
+        <v>158.4006097560976</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3075,22 +3075,22 @@
         <v>0.004333430713798812</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>414.2356490872211</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>273.3130121703854</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3104,22 +3104,22 @@
         <v>0.004382120946538125</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>414.2440263691684</v>
+        <v>-180.6958943089431</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>273.2878803245437</v>
+        <v>158.350243902439</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3133,22 @@
         <v>0.004430811179277437</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7126829268292</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>273.2795030425964</v>
+        <v>158.3670325203252</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3162,22 +3162,22 @@
         <v>0.004479501412016749</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>414.2272718052738</v>
+        <v>-180.7294715447154</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>273.2878803245437</v>
+        <v>158.350243902439</v>
       </c>
       <c r="E94" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3191,22 +3191,22 @@
         <v>0.004528191644756062</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>414.202139959432</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3334552845529</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3220,22 +3220,22 @@
         <v>0.004576881877495375</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>414.168630831643</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3249,22 +3249,22 @@
         <v>0.004625572110234687</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>414.1853853955375</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
         <v>0.004674262342973999</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>414.202139959432</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>273.3130121703854</v>
+        <v>158.2998780487805</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3307,22 +3307,22 @@
         <v>0.004722952575713312</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>414.1937626774848</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>273.3046348884382</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
         <v>0.004771642808452625</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>414.168630831643</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E100" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3365,22 +3365,22 @@
         <v>0.004820333041191937</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>414.1770081135902</v>
+        <v>-180.779837398374</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>273.3046348884381</v>
+        <v>158.2998780487805</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3394,22 +3394,22 @@
         <v>0.004869023273931249</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>414.1770081135903</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>273.3046348884381</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3423,22 +3423,22 @@
         <v>0.004917713506670562</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>414.1853853955375</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3452,22 +3452,22 @@
         <v>0.004966403739409875</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>414.1853853955375</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>273.3130121703854</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3481,22 @@
         <v>0.005015093972149187</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>414.1937626774848</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>273.3046348884382</v>
+        <v>158.2998780487805</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3510,22 +3510,22 @@
         <v>0.005063784204888499</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>414.2105172413793</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>273.3213894523327</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3539,22 +3539,22 @@
         <v>0.005112474437627812</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>414.1937626774848</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>273.3213894523327</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3568,22 +3568,22 @@
         <v>0.005161164670367124</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>414.202139959432</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>273.3297667342799</v>
+        <v>158.2663008130081</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
         <v>0.005209854903106437</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7126829268293</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>273.3297667342799</v>
+        <v>158.2663008130081</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -208.565, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3626,22 +3626,22 @@
         <v>0.005258545135845749</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>273.32976673428</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3655,22 +3655,22 @@
         <v>0.005307235368585062</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>414.2105172413793</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>273.3213894523327</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3684,22 +3684,22 @@
         <v>0.005355925601324374</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>414.2105172413793</v>
+        <v>-180.7294715447154</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>273.3381440162272</v>
+        <v>158.249512195122</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3713,22 +3713,22 @@
         <v>0.005404615834063687</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7126829268293</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>273.3297667342799</v>
+        <v>158.2663008130081</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3742,22 +3742,22 @@
         <v>0.005453306066803</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>414.2440263691684</v>
+        <v>-180.6958943089431</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>273.3381440162272</v>
+        <v>158.249512195122</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3771,22 +3771,22 @@
         <v>0.005501996299542311</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>414.2272718052739</v>
+        <v>-180.7126829268293</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>273.3381440162272</v>
+        <v>158.2663008130081</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3800,22 +3800,22 @@
         <v>0.005550686532281624</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>414.2188945233265</v>
+        <v>-180.7126829268292</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>273.3465212981745</v>
+        <v>158.2327235772358</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -208.565, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
     </row>
@@ -3829,22 +3829,22 @@
         <v>0.005599376765020937</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>414.2272718052738</v>
+        <v>-180.6958943089431</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>273.3381440162272</v>
+        <v>158.249512195122</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.0649999